--- a/OpsAndMats/8033334_HD Drive Unit.xlsx
+++ b/OpsAndMats/8033334_HD Drive Unit.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eclark.LABTESTING\Documents\ERP Notes\Phase2_BOM\OpsAndMats\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C97D2C-BE9F-4E10-98D7-4E8334FFB653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
     <sheet name="Operations" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="250">
   <si>
     <t>Item</t>
   </si>
@@ -164,327 +158,321 @@
     <t>8026575</t>
   </si>
   <si>
+    <t>8026574</t>
+  </si>
+  <si>
+    <t>8033317</t>
+  </si>
+  <si>
+    <t>8033330-A</t>
+  </si>
+  <si>
+    <t>8033327</t>
+  </si>
+  <si>
+    <t>8033330</t>
+  </si>
+  <si>
+    <t>6140094</t>
+  </si>
+  <si>
+    <t>6620009</t>
+  </si>
+  <si>
+    <t>8026533</t>
+  </si>
+  <si>
+    <t>8033334-X</t>
+  </si>
+  <si>
+    <t>8033334-1</t>
+  </si>
+  <si>
+    <t>8033334-2</t>
+  </si>
+  <si>
+    <t>Drive Wheel, Less Bearings, M76FG</t>
+  </si>
+  <si>
+    <t>Drive wheel, less bearings, M76FG</t>
+  </si>
+  <si>
+    <t>H.D. Drive wheel pulleys</t>
+  </si>
+  <si>
+    <t>Drive Wheel &amp; Stirrup Assy, M76FG</t>
+  </si>
+  <si>
+    <t>Drive Wheel, PTO Assembly, M76FG</t>
+  </si>
+  <si>
+    <t>Auto-Tensioner Pully Pivot Plate, M76FG…</t>
+  </si>
+  <si>
+    <t>Spring, AUTO-TENSIONER, M76FG,…</t>
+  </si>
+  <si>
+    <t>Bearing Spacer, Auto-Tensioner Pulley f…</t>
+  </si>
+  <si>
+    <t>Pulley Assembly, AUTO-TENSIONER, M76FG,…</t>
+  </si>
+  <si>
+    <t>#SH-1", taper split bushing, plated</t>
+  </si>
+  <si>
+    <t>V-belt pulley, QD type, 4-3/8", plated</t>
+  </si>
+  <si>
+    <t>Drive unit shaft coupler-76F</t>
+  </si>
+  <si>
+    <t>Drive Unit Assembly, M76FG, M204H, M205H</t>
+  </si>
+  <si>
+    <t>ASY010</t>
+  </si>
+  <si>
+    <t>EXT010</t>
+  </si>
+  <si>
+    <t>FAB010</t>
+  </si>
+  <si>
+    <t>FAB090</t>
+  </si>
+  <si>
+    <t>Assembly, System</t>
+  </si>
+  <si>
+    <t>External Operations</t>
+  </si>
+  <si>
+    <t>Fabrication, Saw</t>
+  </si>
+  <si>
+    <t>Fabrication, Bend</t>
+  </si>
+  <si>
+    <t>6090013</t>
+  </si>
+  <si>
+    <t>8026535-A</t>
+  </si>
+  <si>
+    <t>8026535-B</t>
+  </si>
+  <si>
+    <t>8026507-U</t>
+  </si>
+  <si>
+    <t>9816101</t>
+  </si>
+  <si>
+    <t>8026506</t>
+  </si>
+  <si>
+    <t>1102801</t>
+  </si>
+  <si>
+    <t>8026505</t>
+  </si>
+  <si>
+    <t>1033501</t>
+  </si>
+  <si>
+    <t>1527601</t>
+  </si>
+  <si>
+    <t>1527602</t>
+  </si>
+  <si>
+    <t>2477626-1</t>
+  </si>
+  <si>
+    <t>1211203</t>
+  </si>
+  <si>
+    <t>1011201</t>
+  </si>
+  <si>
+    <t>1575701</t>
+  </si>
+  <si>
     <t>8033976</t>
   </si>
   <si>
-    <t>8026574</t>
-  </si>
-  <si>
-    <t>8033317</t>
-  </si>
-  <si>
-    <t>8033330-A</t>
-  </si>
-  <si>
-    <t>8033327</t>
-  </si>
-  <si>
-    <t>8033330</t>
-  </si>
-  <si>
-    <t>6140094</t>
-  </si>
-  <si>
-    <t>6620009</t>
-  </si>
-  <si>
-    <t>8026533</t>
-  </si>
-  <si>
-    <t>8033334-X</t>
-  </si>
-  <si>
-    <t>8033334-1</t>
-  </si>
-  <si>
-    <t>8033334-2</t>
-  </si>
-  <si>
-    <t>Drive Wheel, Less Bearings, M76FG</t>
-  </si>
-  <si>
-    <t>Drive wheel, less bearings, M76FG</t>
-  </si>
-  <si>
-    <t>H.D. Drive wheel pulleys</t>
-  </si>
-  <si>
-    <t>Drive Wheel &amp; Stirrup Assy, M76FG</t>
+    <t>1422008</t>
+  </si>
+  <si>
+    <t>1577201</t>
+  </si>
+  <si>
+    <t>2332803</t>
+  </si>
+  <si>
+    <t>6460080-U</t>
+  </si>
+  <si>
+    <t>9070060-187</t>
+  </si>
+  <si>
+    <t>6741022</t>
+  </si>
+  <si>
+    <t>9073040-049</t>
+  </si>
+  <si>
+    <t>8033329</t>
+  </si>
+  <si>
+    <t>8026600</t>
+  </si>
+  <si>
+    <t>1477202</t>
+  </si>
+  <si>
+    <t>3030019</t>
+  </si>
+  <si>
+    <t>1001701</t>
+  </si>
+  <si>
+    <t>1402820</t>
+  </si>
+  <si>
+    <t>1402824</t>
+  </si>
+  <si>
+    <t>1527401</t>
+  </si>
+  <si>
+    <t>1527402</t>
+  </si>
+  <si>
+    <t>1577401</t>
+  </si>
+  <si>
+    <t>1032801</t>
+  </si>
+  <si>
+    <t>6090005</t>
+  </si>
+  <si>
+    <t>6680010</t>
+  </si>
+  <si>
+    <t>6140094-U</t>
+  </si>
+  <si>
+    <t>9816011</t>
+  </si>
+  <si>
+    <t>6620009-U</t>
+  </si>
+  <si>
+    <t>8026533-U</t>
+  </si>
+  <si>
+    <t>1210902</t>
+  </si>
+  <si>
+    <t>1575501</t>
+  </si>
+  <si>
+    <t>8025103</t>
+  </si>
+  <si>
+    <t>6110001</t>
+  </si>
+  <si>
+    <t>8026509</t>
+  </si>
+  <si>
+    <t>6090019</t>
+  </si>
+  <si>
+    <t>1402808</t>
+  </si>
+  <si>
+    <t>1231703</t>
+  </si>
+  <si>
+    <t>1576101</t>
+  </si>
+  <si>
+    <t>1506101</t>
+  </si>
+  <si>
+    <t>1211404</t>
+  </si>
+  <si>
+    <t>1033001</t>
+  </si>
+  <si>
+    <t>1575901</t>
+  </si>
+  <si>
+    <t>8033369</t>
+  </si>
+  <si>
+    <t>1162801</t>
+  </si>
+  <si>
+    <t>1507401</t>
+  </si>
+  <si>
+    <t>8027876-1</t>
+  </si>
+  <si>
+    <t>8027876-2</t>
+  </si>
+  <si>
+    <t>ball brng., (1.125"OD, .500"ID)</t>
+  </si>
+  <si>
+    <t>VAC, molding, Drive wheel, M76FG</t>
+  </si>
+  <si>
+    <t>VAC, grinding, Drive wheel, M76FG</t>
+  </si>
+  <si>
+    <t>Hub, Drive Wheel, M76FG, unanodized</t>
+  </si>
+  <si>
+    <t>Anodize, Hard, Clear</t>
+  </si>
+  <si>
+    <t>Drive wheel stirrup</t>
+  </si>
+  <si>
+    <t>Nut, Lt Flexloc, 3/8-16, St. Stl.</t>
+  </si>
+  <si>
+    <t>Angle scales</t>
+  </si>
+  <si>
+    <t>Hex Nut, full, ½-13, St. Stl.</t>
+  </si>
+  <si>
+    <t>Washer, AN, ½, St. Stl.</t>
+  </si>
+  <si>
+    <t>Shoulder Bolt, ½, 3 1/4, Pl. Stl.</t>
+  </si>
+  <si>
+    <t>M.Scr, Rnd Hd., 6-32, 3/8, St. Stl.</t>
+  </si>
+  <si>
+    <t>Hex Nut, narrow, 6-32, St. Stl.</t>
+  </si>
+  <si>
+    <t>Washer, Split Lock, Med, #6, St. Stl.</t>
   </si>
   <si>
     <t>BUSHING PRECISION ANLE ADJ 76F/G</t>
   </si>
   <si>
-    <t>Drive Wheel, PTO Assembly, M76FG</t>
-  </si>
-  <si>
-    <t>Auto-Tensioner Pully Pivot Plate, M76FG…</t>
-  </si>
-  <si>
-    <t>Spring, AUTO-TENSIONER, M76FG,…</t>
-  </si>
-  <si>
-    <t>Bearing Spacer, Auto-Tensioner Pulley f…</t>
-  </si>
-  <si>
-    <t>Pulley Assembly, AUTO-TENSIONER, M76FG,…</t>
-  </si>
-  <si>
-    <t>#SH-1", taper split bushing, plated</t>
-  </si>
-  <si>
-    <t>V-belt pulley, QD type, 4-3/8", plated</t>
-  </si>
-  <si>
-    <t>Drive unit shaft coupler-76F</t>
-  </si>
-  <si>
-    <t>Drive Unit Assembly, M76FG, M204H, M205H</t>
-  </si>
-  <si>
-    <t>ASY010</t>
-  </si>
-  <si>
-    <t>EXT010</t>
-  </si>
-  <si>
-    <t>MCH030</t>
-  </si>
-  <si>
-    <t>FAB010</t>
-  </si>
-  <si>
-    <t>FAB090</t>
-  </si>
-  <si>
-    <t>Assembly, System</t>
-  </si>
-  <si>
-    <t>External Operations</t>
-  </si>
-  <si>
-    <t>Machining, Lathe</t>
-  </si>
-  <si>
-    <t>Fabrication, Saw</t>
-  </si>
-  <si>
-    <t>Fabrication, Bend</t>
-  </si>
-  <si>
-    <t>6090013</t>
-  </si>
-  <si>
-    <t>8026535-A</t>
-  </si>
-  <si>
-    <t>8026535-B</t>
-  </si>
-  <si>
-    <t>8026507-U</t>
-  </si>
-  <si>
-    <t>9816101</t>
-  </si>
-  <si>
-    <t>8026506</t>
-  </si>
-  <si>
-    <t>1102801</t>
-  </si>
-  <si>
-    <t>8026505</t>
-  </si>
-  <si>
-    <t>1033501</t>
-  </si>
-  <si>
-    <t>1527601</t>
-  </si>
-  <si>
-    <t>1527602</t>
-  </si>
-  <si>
-    <t>2477626-1</t>
-  </si>
-  <si>
-    <t>1211203</t>
-  </si>
-  <si>
-    <t>1011201</t>
-  </si>
-  <si>
-    <t>1575701</t>
-  </si>
-  <si>
-    <t>1422008</t>
-  </si>
-  <si>
-    <t>1577201</t>
-  </si>
-  <si>
-    <t>2332803</t>
-  </si>
-  <si>
-    <t>6460080-U</t>
-  </si>
-  <si>
-    <t>9070060-316</t>
-  </si>
-  <si>
-    <t>6741022</t>
-  </si>
-  <si>
-    <t>9073040-049</t>
-  </si>
-  <si>
-    <t>8033329</t>
-  </si>
-  <si>
-    <t>8026600</t>
-  </si>
-  <si>
-    <t>1477202</t>
-  </si>
-  <si>
-    <t>3030019</t>
-  </si>
-  <si>
-    <t>1001701</t>
-  </si>
-  <si>
-    <t>1402820</t>
-  </si>
-  <si>
-    <t>1402824</t>
-  </si>
-  <si>
-    <t>1527401</t>
-  </si>
-  <si>
-    <t>1527402</t>
-  </si>
-  <si>
-    <t>1577401</t>
-  </si>
-  <si>
-    <t>1032801</t>
-  </si>
-  <si>
-    <t>6090005</t>
-  </si>
-  <si>
-    <t>6680010</t>
-  </si>
-  <si>
-    <t>6140094-U</t>
-  </si>
-  <si>
-    <t>9816011</t>
-  </si>
-  <si>
-    <t>6620009-U</t>
-  </si>
-  <si>
-    <t>8026533-U</t>
-  </si>
-  <si>
-    <t>1210902</t>
-  </si>
-  <si>
-    <t>1575501</t>
-  </si>
-  <si>
-    <t>8025103</t>
-  </si>
-  <si>
-    <t>6110001</t>
-  </si>
-  <si>
-    <t>8026509</t>
-  </si>
-  <si>
-    <t>6090019</t>
-  </si>
-  <si>
-    <t>1402808</t>
-  </si>
-  <si>
-    <t>1231703</t>
-  </si>
-  <si>
-    <t>1576101</t>
-  </si>
-  <si>
-    <t>1506101</t>
-  </si>
-  <si>
-    <t>1211404</t>
-  </si>
-  <si>
-    <t>1033001</t>
-  </si>
-  <si>
-    <t>1575901</t>
-  </si>
-  <si>
-    <t>8033369</t>
-  </si>
-  <si>
-    <t>1162801</t>
-  </si>
-  <si>
-    <t>1507401</t>
-  </si>
-  <si>
-    <t>8027876-1</t>
-  </si>
-  <si>
-    <t>8027876-2</t>
-  </si>
-  <si>
-    <t>ball brng., (1.125"OD, .500"ID)</t>
-  </si>
-  <si>
-    <t>VAC, molding, Drive wheel, M76FG</t>
-  </si>
-  <si>
-    <t>VAC, grinding, Drive wheel, M76FG</t>
-  </si>
-  <si>
-    <t>Hub, Drive Wheel, M76FG, unanodized</t>
-  </si>
-  <si>
-    <t>Anodize, Hard, Clear</t>
-  </si>
-  <si>
-    <t>Drive wheel stirrup</t>
-  </si>
-  <si>
-    <t>Nut, Lt Flexloc, 3/8-16, St. Stl.</t>
-  </si>
-  <si>
-    <t>Angle scales</t>
-  </si>
-  <si>
-    <t>Hex Nut, full, ½-13, St. Stl.</t>
-  </si>
-  <si>
-    <t>Washer, AN, ½, St. Stl.</t>
-  </si>
-  <si>
-    <t>Shoulder Bolt, ½, 3 1/4, Pl. Stl.</t>
-  </si>
-  <si>
-    <t>M.Scr, Rnd Hd., 6-32, 3/8, St. Stl.</t>
-  </si>
-  <si>
-    <t>Hex Nut, narrow, 6-32, St. Stl.</t>
-  </si>
-  <si>
-    <t>Washer, Split Lock, Med, #6, St. Stl.</t>
-  </si>
-  <si>
     <t>SHCS, ¼-20, 1, St. Stl.</t>
   </si>
   <si>
@@ -728,28 +716,28 @@
     <t>Fixed Ovhd Rate</t>
   </si>
   <si>
+    <t>MCH010</t>
+  </si>
+  <si>
+    <t>MCH050</t>
+  </si>
+  <si>
+    <t>FAB100</t>
+  </si>
+  <si>
     <t>MCH060</t>
   </si>
   <si>
-    <t>MCH010</t>
-  </si>
-  <si>
-    <t>MCH050</t>
-  </si>
-  <si>
-    <t>FAB100</t>
+    <t>Machining, Mill</t>
+  </si>
+  <si>
+    <t>Machining, Surface Grind</t>
+  </si>
+  <si>
+    <t>Fabrication, Trim</t>
   </si>
   <si>
     <t>Machining, Hand Finish</t>
-  </si>
-  <si>
-    <t>Machining, Mill</t>
-  </si>
-  <si>
-    <t>Machining, Surface Grind</t>
-  </si>
-  <si>
-    <t>Fabrication, Trim</t>
   </si>
   <si>
     <t>Mch Hours/Pc</t>
@@ -782,8 +770,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -846,14 +834,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -900,7 +880,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -932,27 +912,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -984,24 +946,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1177,16 +1121,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AQ79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1317,27 +1259,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43">
       <c r="A2" t="s">
         <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s">
         <v>44</v>
       </c>
       <c r="J2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1355,10 +1297,10 @@
         <v>1</v>
       </c>
       <c r="T2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -1400,27 +1342,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43">
       <c r="A3" t="s">
         <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3">
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -1438,10 +1380,10 @@
         <v>2</v>
       </c>
       <c r="T3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -1483,27 +1425,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43">
       <c r="A4" t="s">
         <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
         <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1521,10 +1463,10 @@
         <v>1</v>
       </c>
       <c r="T4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1566,27 +1508,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43">
       <c r="A5" t="s">
         <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -1604,10 +1546,10 @@
         <v>1</v>
       </c>
       <c r="T5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1649,27 +1591,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43">
       <c r="A6" t="s">
         <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1687,10 +1629,10 @@
         <v>1</v>
       </c>
       <c r="T6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1732,27 +1674,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43">
       <c r="A7" t="s">
         <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1770,10 +1712,10 @@
         <v>1</v>
       </c>
       <c r="T7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -1815,27 +1757,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43">
       <c r="A8" t="s">
         <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8">
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -1853,10 +1795,10 @@
         <v>1</v>
       </c>
       <c r="T8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1898,27 +1840,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43">
       <c r="A9" t="s">
         <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9">
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1936,10 +1878,10 @@
         <v>1</v>
       </c>
       <c r="T9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1981,27 +1923,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43">
       <c r="A10" t="s">
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10">
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I10" t="s">
         <v>43</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -2019,10 +1961,10 @@
         <v>1</v>
       </c>
       <c r="T10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -2064,27 +2006,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43">
       <c r="A11" t="s">
         <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -2102,10 +2044,10 @@
         <v>1</v>
       </c>
       <c r="T11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -2147,27 +2089,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43">
       <c r="A12" t="s">
         <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K12">
         <v>4</v>
@@ -2185,10 +2127,10 @@
         <v>1</v>
       </c>
       <c r="T12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -2230,27 +2172,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43">
       <c r="A13" t="s">
         <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13">
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K13">
         <v>5</v>
@@ -2268,10 +2210,10 @@
         <v>1</v>
       </c>
       <c r="T13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -2313,27 +2255,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43">
       <c r="A14" t="s">
         <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14">
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K14">
         <v>6</v>
@@ -2351,10 +2293,10 @@
         <v>2</v>
       </c>
       <c r="T14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -2396,27 +2338,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43">
       <c r="A15" t="s">
         <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15">
         <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K15">
         <v>7</v>
@@ -2434,10 +2376,10 @@
         <v>1</v>
       </c>
       <c r="T15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -2479,27 +2421,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43">
       <c r="A16" t="s">
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16">
         <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K16">
         <v>8</v>
@@ -2517,10 +2459,10 @@
         <v>1</v>
       </c>
       <c r="T16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -2562,27 +2504,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43">
       <c r="A17" t="s">
         <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17">
         <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K17">
         <v>9</v>
@@ -2600,10 +2542,10 @@
         <v>2</v>
       </c>
       <c r="T17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -2645,27 +2587,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43">
       <c r="A18" t="s">
         <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18">
         <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I18" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K18">
         <v>10</v>
@@ -2683,10 +2625,10 @@
         <v>2</v>
       </c>
       <c r="T18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -2728,27 +2670,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43">
       <c r="A19" t="s">
         <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19">
         <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J19" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K19">
         <v>11</v>
@@ -2766,10 +2708,10 @@
         <v>2</v>
       </c>
       <c r="T19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -2811,27 +2753,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43">
       <c r="A20" t="s">
         <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20">
         <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="J20" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="K20">
         <v>12</v>
@@ -2849,10 +2791,10 @@
         <v>1</v>
       </c>
       <c r="T20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -2894,27 +2836,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E21">
         <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -2932,10 +2874,10 @@
         <v>1</v>
       </c>
       <c r="T21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -2977,27 +2919,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E22">
         <v>10</v>
       </c>
       <c r="G22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -3015,10 +2957,10 @@
         <v>1</v>
       </c>
       <c r="T22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -3060,27 +3002,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E23">
         <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -3098,10 +3040,10 @@
         <v>1</v>
       </c>
       <c r="T23" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U23" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -3143,27 +3085,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E24">
         <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I24" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J24" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K24">
         <v>4</v>
@@ -3181,10 +3123,10 @@
         <v>4</v>
       </c>
       <c r="T24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U24" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -3226,27 +3168,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E25">
         <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H25" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K25">
         <v>5</v>
@@ -3264,10 +3206,10 @@
         <v>4</v>
       </c>
       <c r="T25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -3309,27 +3251,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E26">
         <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K26">
         <v>6</v>
@@ -3347,10 +3289,10 @@
         <v>2</v>
       </c>
       <c r="T26" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U26" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -3392,27 +3334,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E27">
         <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I27" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K27">
         <v>7</v>
@@ -3430,11 +3372,11 @@
         <v>1.5</v>
       </c>
       <c r="T27" t="s">
+        <v>192</v>
+      </c>
+      <c r="U27" t="s">
         <v>194</v>
       </c>
-      <c r="U27" t="s">
-        <v>196</v>
-      </c>
       <c r="V27">
         <v>0</v>
       </c>
@@ -3475,27 +3417,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>10</v>
       </c>
       <c r="G28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H28" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I28" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K28">
         <v>8</v>
@@ -3513,11 +3455,11 @@
         <v>2.5</v>
       </c>
       <c r="T28" t="s">
+        <v>192</v>
+      </c>
+      <c r="U28" t="s">
         <v>194</v>
       </c>
-      <c r="U28" t="s">
-        <v>196</v>
-      </c>
       <c r="V28">
         <v>0</v>
       </c>
@@ -3558,27 +3500,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>10</v>
       </c>
       <c r="G29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H29" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I29" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J29" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -3596,11 +3538,11 @@
         <v>5</v>
       </c>
       <c r="T29" t="s">
+        <v>192</v>
+      </c>
+      <c r="U29" t="s">
         <v>194</v>
       </c>
-      <c r="U29" t="s">
-        <v>196</v>
-      </c>
       <c r="V29">
         <v>0</v>
       </c>
@@ -3641,27 +3583,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H30" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I30" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J30" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -3679,10 +3621,10 @@
         <v>1</v>
       </c>
       <c r="T30" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U30" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -3724,27 +3666,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I31" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -3762,11 +3704,11 @@
         <v>1.554</v>
       </c>
       <c r="T31" t="s">
+        <v>192</v>
+      </c>
+      <c r="U31" t="s">
         <v>194</v>
       </c>
-      <c r="U31" t="s">
-        <v>196</v>
-      </c>
       <c r="V31">
         <v>0</v>
       </c>
@@ -3807,27 +3749,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H32" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I32" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -3845,10 +3787,10 @@
         <v>1</v>
       </c>
       <c r="T32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U32" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -3890,27 +3832,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:43">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E33">
         <v>10</v>
       </c>
       <c r="G33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H33" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -3928,10 +3870,10 @@
         <v>1</v>
       </c>
       <c r="T33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -3973,27 +3915,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:43">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E34">
         <v>10</v>
       </c>
       <c r="G34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H34" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -4011,10 +3953,10 @@
         <v>1</v>
       </c>
       <c r="T34" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U34" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -4056,27 +3998,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:43">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E35">
         <v>10</v>
       </c>
       <c r="G35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H35" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K35">
         <v>4</v>
@@ -4094,10 +4036,10 @@
         <v>1</v>
       </c>
       <c r="T35" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U35" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -4139,27 +4081,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:43">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E36">
         <v>10</v>
       </c>
       <c r="G36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H36" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J36" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K36">
         <v>5</v>
@@ -4177,10 +4119,10 @@
         <v>2</v>
       </c>
       <c r="T36" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U36" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -4222,27 +4164,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:43">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E37">
         <v>10</v>
       </c>
       <c r="G37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H37" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I37" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K37">
         <v>6</v>
@@ -4260,10 +4202,10 @@
         <v>1</v>
       </c>
       <c r="T37" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U37" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V37">
         <v>0</v>
@@ -4305,27 +4247,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:43">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E38">
         <v>10</v>
       </c>
       <c r="G38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H38" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I38" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J38" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K38">
         <v>7</v>
@@ -4343,10 +4285,10 @@
         <v>4</v>
       </c>
       <c r="T38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V38">
         <v>0</v>
@@ -4388,27 +4330,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:43">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E39">
         <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H39" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I39" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J39" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K39">
         <v>8</v>
@@ -4426,10 +4368,10 @@
         <v>1</v>
       </c>
       <c r="T39" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U39" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V39">
         <v>0</v>
@@ -4471,27 +4413,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:43">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E40">
         <v>10</v>
       </c>
       <c r="G40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I40" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J40" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K40">
         <v>9</v>
@@ -4509,10 +4451,10 @@
         <v>1</v>
       </c>
       <c r="T40" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U40" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -4554,27 +4496,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:43">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E41">
         <v>10</v>
       </c>
       <c r="G41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H41" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I41" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K41">
         <v>10</v>
@@ -4592,10 +4534,10 @@
         <v>1</v>
       </c>
       <c r="T41" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U41" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V41">
         <v>0</v>
@@ -4637,27 +4579,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:43">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E42">
         <v>10</v>
       </c>
       <c r="G42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H42" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I42" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J42" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K42">
         <v>11</v>
@@ -4675,10 +4617,10 @@
         <v>3</v>
       </c>
       <c r="T42" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U42" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V42">
         <v>0</v>
@@ -4720,27 +4662,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:43">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E43">
         <v>10</v>
       </c>
       <c r="G43" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H43" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I43" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J43" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K43">
         <v>12</v>
@@ -4758,10 +4700,10 @@
         <v>1</v>
       </c>
       <c r="T43" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U43" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V43">
         <v>0</v>
@@ -4803,27 +4745,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:43">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E44">
         <v>10</v>
       </c>
       <c r="G44" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H44" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I44" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J44" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K44">
         <v>13</v>
@@ -4841,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="T44" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U44" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V44">
         <v>0</v>
@@ -4886,27 +4828,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:43">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E45">
         <v>10</v>
       </c>
       <c r="G45" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H45" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I45" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J45" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K45">
         <v>14</v>
@@ -4924,10 +4866,10 @@
         <v>1</v>
       </c>
       <c r="T45" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U45" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V45">
         <v>0</v>
@@ -4969,27 +4911,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:43">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E46">
         <v>10</v>
       </c>
       <c r="G46" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H46" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I46" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J46" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K46">
         <v>15</v>
@@ -5007,10 +4949,10 @@
         <v>4</v>
       </c>
       <c r="T46" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U46" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V46">
         <v>0</v>
@@ -5052,27 +4994,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:43">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E47">
         <v>10</v>
       </c>
       <c r="G47" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H47" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I47" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J47" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K47">
         <v>16</v>
@@ -5090,10 +5032,10 @@
         <v>1</v>
       </c>
       <c r="T47" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U47" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V47">
         <v>0</v>
@@ -5135,27 +5077,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:43">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E48">
         <v>10</v>
       </c>
       <c r="G48" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I48" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J48" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -5173,10 +5115,10 @@
         <v>1</v>
       </c>
       <c r="T48" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U48" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V48">
         <v>0</v>
@@ -5218,27 +5160,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:43">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E49">
         <v>10</v>
       </c>
       <c r="G49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H49" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I49" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J49" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K49">
         <v>2</v>
@@ -5256,10 +5198,10 @@
         <v>1</v>
       </c>
       <c r="T49" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U49" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V49">
         <v>0</v>
@@ -5301,27 +5243,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:43">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E50">
         <v>10</v>
       </c>
       <c r="G50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H50" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I50" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J50" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -5339,10 +5281,10 @@
         <v>1</v>
       </c>
       <c r="T50" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U50" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V50">
         <v>0</v>
@@ -5384,27 +5326,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:43">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E51">
         <v>10</v>
       </c>
       <c r="G51" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H51" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I51" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J51" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -5422,10 +5364,10 @@
         <v>1</v>
       </c>
       <c r="T51" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U51" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V51">
         <v>0</v>
@@ -5467,27 +5409,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:43">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E52">
         <v>10</v>
       </c>
       <c r="G52" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H52" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I52" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J52" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -5505,10 +5447,10 @@
         <v>1</v>
       </c>
       <c r="T52" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U52" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V52">
         <v>0</v>
@@ -5550,27 +5492,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:43">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E53">
         <v>10</v>
       </c>
       <c r="G53" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H53" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I53" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J53" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K53">
         <v>2</v>
@@ -5588,10 +5530,10 @@
         <v>1</v>
       </c>
       <c r="T53" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U53" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V53">
         <v>0</v>
@@ -5633,27 +5575,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:43">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E54">
         <v>10</v>
       </c>
       <c r="G54" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I54" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -5671,10 +5613,10 @@
         <v>2</v>
       </c>
       <c r="T54" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U54" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V54">
         <v>0</v>
@@ -5716,27 +5658,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:43">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E55">
         <v>10</v>
       </c>
       <c r="G55" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I55" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J55" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K55">
         <v>2</v>
@@ -5754,10 +5696,10 @@
         <v>2</v>
       </c>
       <c r="T55" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U55" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V55">
         <v>0</v>
@@ -5799,27 +5741,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:43">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E56">
         <v>10</v>
       </c>
       <c r="G56" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I56" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J56" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K56">
         <v>3</v>
@@ -5837,10 +5779,10 @@
         <v>1</v>
       </c>
       <c r="T56" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U56" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V56">
         <v>0</v>
@@ -5882,27 +5824,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:43">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E57">
         <v>10</v>
       </c>
       <c r="G57" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I57" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J57" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K57">
         <v>4</v>
@@ -5920,10 +5862,10 @@
         <v>1</v>
       </c>
       <c r="T57" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U57" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V57">
         <v>0</v>
@@ -5965,27 +5907,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:43">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E58">
         <v>10</v>
       </c>
       <c r="G58" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I58" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J58" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K58">
         <v>5</v>
@@ -6003,10 +5945,10 @@
         <v>1</v>
       </c>
       <c r="T58" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U58" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V58">
         <v>0</v>
@@ -6048,27 +5990,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:43">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E59">
         <v>10</v>
       </c>
       <c r="G59" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I59" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J59" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K59">
         <v>6</v>
@@ -6086,10 +6028,10 @@
         <v>2</v>
       </c>
       <c r="T59" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U59" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V59">
         <v>0</v>
@@ -6131,27 +6073,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:43">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E60">
         <v>10</v>
       </c>
       <c r="G60" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H60" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I60" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J60" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K60">
         <v>7</v>
@@ -6169,10 +6111,10 @@
         <v>4</v>
       </c>
       <c r="T60" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U60" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V60">
         <v>0</v>
@@ -6214,27 +6156,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:43">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B61" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E61">
         <v>10</v>
       </c>
       <c r="G61" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H61" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I61" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J61" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K61">
         <v>8</v>
@@ -6252,10 +6194,10 @@
         <v>7</v>
       </c>
       <c r="T61" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U61" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V61">
         <v>0</v>
@@ -6297,27 +6239,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:43">
       <c r="A62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E62">
         <v>10</v>
       </c>
       <c r="G62" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H62" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I62" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J62" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K62">
         <v>9</v>
@@ -6335,10 +6277,10 @@
         <v>7</v>
       </c>
       <c r="T62" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U62" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V62">
         <v>0</v>
@@ -6380,27 +6322,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:43">
       <c r="A63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E63">
         <v>10</v>
       </c>
       <c r="G63" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H63" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I63" t="s">
         <v>46</v>
       </c>
       <c r="J63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K63">
         <v>10</v>
@@ -6418,10 +6360,10 @@
         <v>1</v>
       </c>
       <c r="T63" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U63" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V63">
         <v>0</v>
@@ -6463,27 +6405,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:43">
       <c r="A64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B64" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E64">
         <v>10</v>
       </c>
       <c r="G64" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H64" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I64" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J64" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K64">
         <v>11</v>
@@ -6501,10 +6443,10 @@
         <v>8</v>
       </c>
       <c r="T64" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U64" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V64">
         <v>0</v>
@@ -6546,27 +6488,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:43">
       <c r="A65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E65">
         <v>10</v>
       </c>
       <c r="G65" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H65" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I65" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J65" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K65">
         <v>12</v>
@@ -6584,10 +6526,10 @@
         <v>8</v>
       </c>
       <c r="T65" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U65" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V65">
         <v>0</v>
@@ -6629,27 +6571,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:43">
       <c r="A66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E66">
         <v>10</v>
       </c>
       <c r="G66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H66" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I66" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J66" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K66">
         <v>13</v>
@@ -6667,10 +6609,10 @@
         <v>8</v>
       </c>
       <c r="T66" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U66" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V66">
         <v>0</v>
@@ -6712,27 +6654,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:43">
       <c r="A67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E67">
         <v>10</v>
       </c>
       <c r="G67" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H67" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J67" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K67">
         <v>14</v>
@@ -6750,10 +6692,10 @@
         <v>1</v>
       </c>
       <c r="T67" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U67" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V67">
         <v>0</v>
@@ -6795,27 +6737,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:43">
       <c r="A68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B68" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E68">
         <v>10</v>
       </c>
       <c r="G68" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H68" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I68" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J68" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K68">
         <v>15</v>
@@ -6833,10 +6775,10 @@
         <v>2</v>
       </c>
       <c r="T68" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U68" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V68">
         <v>0</v>
@@ -6878,27 +6820,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:43">
       <c r="A69" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E69">
         <v>10</v>
       </c>
       <c r="G69" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H69" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I69" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J69" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K69">
         <v>16</v>
@@ -6916,10 +6858,10 @@
         <v>2</v>
       </c>
       <c r="T69" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U69" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V69">
         <v>0</v>
@@ -6961,27 +6903,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:43">
       <c r="A70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E70">
         <v>10</v>
       </c>
       <c r="G70" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H70" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I70" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J70" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K70">
         <v>17</v>
@@ -6999,10 +6941,10 @@
         <v>2</v>
       </c>
       <c r="T70" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U70" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V70">
         <v>0</v>
@@ -7044,27 +6986,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:43">
       <c r="A71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E71">
         <v>10</v>
       </c>
       <c r="G71" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H71" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I71" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J71" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K71">
         <v>18</v>
@@ -7082,10 +7024,10 @@
         <v>1</v>
       </c>
       <c r="T71" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U71" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V71">
         <v>0</v>
@@ -7127,27 +7069,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:43">
       <c r="A72" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E72">
         <v>10</v>
       </c>
       <c r="G72" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H72" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J72" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K72">
         <v>19</v>
@@ -7165,10 +7107,10 @@
         <v>1</v>
       </c>
       <c r="T72" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U72" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V72">
         <v>0</v>
@@ -7210,27 +7152,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:43">
       <c r="A73" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E73">
         <v>10</v>
       </c>
       <c r="G73" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H73" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I73" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J73" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K73">
         <v>20</v>
@@ -7248,10 +7190,10 @@
         <v>2</v>
       </c>
       <c r="T73" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U73" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V73">
         <v>0</v>
@@ -7293,27 +7235,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:43">
       <c r="A74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E74">
         <v>10</v>
       </c>
       <c r="G74" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H74" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I74" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J74" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K74">
         <v>21</v>
@@ -7331,10 +7273,10 @@
         <v>2</v>
       </c>
       <c r="T74" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U74" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V74">
         <v>0</v>
@@ -7376,27 +7318,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:43">
       <c r="A75" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B75" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E75">
         <v>10</v>
       </c>
       <c r="G75" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H75" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I75" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J75" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K75">
         <v>22</v>
@@ -7414,10 +7356,10 @@
         <v>2</v>
       </c>
       <c r="T75" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U75" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V75">
         <v>0</v>
@@ -7459,27 +7401,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:43">
       <c r="A76" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B76" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E76">
         <v>10</v>
       </c>
       <c r="G76" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H76" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I76" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J76" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K76">
         <v>1</v>
@@ -7497,10 +7439,10 @@
         <v>1</v>
       </c>
       <c r="T76" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U76" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V76">
         <v>0</v>
@@ -7542,27 +7484,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:43">
       <c r="A77" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B77" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E77">
         <v>10</v>
       </c>
       <c r="G77" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H77" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I77" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J77" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K77">
         <v>2</v>
@@ -7580,10 +7522,10 @@
         <v>1</v>
       </c>
       <c r="T77" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U77" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V77">
         <v>0</v>
@@ -7625,27 +7567,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:43">
       <c r="A78" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B78" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E78">
         <v>10</v>
       </c>
       <c r="G78" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H78" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I78" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J78" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K78">
         <v>1</v>
@@ -7663,10 +7605,10 @@
         <v>1</v>
       </c>
       <c r="T78" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U78" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V78">
         <v>0</v>
@@ -7708,27 +7650,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:43">
       <c r="A79" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B79" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E79">
         <v>10</v>
       </c>
       <c r="G79" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H79" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I79" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J79" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K79">
         <v>2</v>
@@ -7746,10 +7688,10 @@
         <v>1</v>
       </c>
       <c r="T79" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U79" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V79">
         <v>0</v>
@@ -7797,14 +7739,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AW23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AW21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7830,61 +7772,61 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>23</v>
@@ -7893,99 +7835,99 @@
         <v>24</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AF1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="AV1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>234</v>
-      </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49">
       <c r="A2" t="s">
         <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L2">
         <v>0.5</v>
       </c>
       <c r="M2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P2">
         <v>0.5</v>
@@ -8018,28 +7960,28 @@
         <v>1</v>
       </c>
       <c r="AE2" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="s">
         <v>246</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AK2" t="s">
         <v>247</v>
       </c>
-      <c r="AH2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="s">
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="s">
         <v>248</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AN2" t="s">
         <v>249</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>251</v>
       </c>
       <c r="AO2">
         <v>0</v>
@@ -8063,39 +8005,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49">
       <c r="A3" t="s">
         <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3">
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L3">
         <v>0.5</v>
       </c>
       <c r="M3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P3">
         <v>0.5</v>
@@ -8128,28 +8070,28 @@
         <v>1</v>
       </c>
       <c r="AE3" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="s">
         <v>246</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AK3" t="s">
         <v>247</v>
       </c>
-      <c r="AH3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="s">
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="s">
         <v>248</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AN3" t="s">
         <v>249</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>250</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>251</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -8173,39 +8115,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49">
       <c r="A4" t="s">
         <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4">
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L4">
         <v>0.5</v>
       </c>
       <c r="M4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P4">
         <v>0.5</v>
@@ -8238,28 +8180,28 @@
         <v>1</v>
       </c>
       <c r="AE4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="s">
         <v>246</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AK4" t="s">
         <v>247</v>
       </c>
-      <c r="AH4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="s">
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="s">
         <v>248</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AN4" t="s">
         <v>249</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>250</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>251</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -8283,39 +8225,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49">
       <c r="A5" t="s">
         <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L5">
         <v>0.5</v>
       </c>
       <c r="M5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P5">
         <v>0.5</v>
@@ -8348,28 +8290,28 @@
         <v>1</v>
       </c>
       <c r="AE5" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="s">
         <v>246</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AK5" t="s">
         <v>247</v>
       </c>
-      <c r="AH5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="s">
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="s">
         <v>248</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AN5" t="s">
         <v>249</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>250</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>251</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -8393,39 +8335,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49">
       <c r="A6" t="s">
         <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L6">
         <v>0.5</v>
       </c>
       <c r="M6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P6">
         <v>0.5</v>
@@ -8458,28 +8400,28 @@
         <v>1</v>
       </c>
       <c r="AE6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="s">
         <v>246</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AK6" t="s">
         <v>247</v>
       </c>
-      <c r="AH6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="s">
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="s">
         <v>248</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AN6" t="s">
         <v>249</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>250</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>251</v>
       </c>
       <c r="AO6">
         <v>0</v>
@@ -8503,39 +8445,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49">
       <c r="A7" t="s">
         <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7">
         <v>10</v>
       </c>
       <c r="G7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" t="s">
         <v>75</v>
       </c>
-      <c r="H7" t="s">
-        <v>80</v>
-      </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L7">
         <v>0.5</v>
       </c>
       <c r="M7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P7">
         <v>0.5</v>
@@ -8568,28 +8510,28 @@
         <v>1</v>
       </c>
       <c r="AE7" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="s">
         <v>246</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AK7" t="s">
         <v>247</v>
       </c>
-      <c r="AH7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="s">
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="s">
         <v>248</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AN7" t="s">
         <v>249</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>250</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>251</v>
       </c>
       <c r="AO7">
         <v>0</v>
@@ -8613,39 +8555,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
         <v>63</v>
       </c>
       <c r="E8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>235</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s">
-        <v>239</v>
+        <v>77</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L8">
         <v>0.5</v>
       </c>
       <c r="M8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P8">
         <v>0.5</v>
@@ -8678,28 +8620,28 @@
         <v>1</v>
       </c>
       <c r="AE8" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="s">
         <v>246</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AK8" t="s">
         <v>247</v>
       </c>
-      <c r="AH8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="s">
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="s">
         <v>248</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AN8" t="s">
         <v>249</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>250</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>251</v>
       </c>
       <c r="AO8">
         <v>0</v>
@@ -8723,39 +8665,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49">
       <c r="A9" t="s">
         <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>233</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>237</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L9">
         <v>0.5</v>
       </c>
       <c r="M9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P9">
         <v>0.5</v>
@@ -8788,28 +8730,28 @@
         <v>1</v>
       </c>
       <c r="AE9" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="s">
         <v>246</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AK9" t="s">
         <v>247</v>
       </c>
-      <c r="AH9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="s">
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="s">
         <v>248</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AN9" t="s">
         <v>249</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>250</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>251</v>
       </c>
       <c r="AO9">
         <v>0</v>
@@ -8833,39 +8775,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>234</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L10">
         <v>0.5</v>
       </c>
       <c r="M10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P10">
         <v>0.5</v>
@@ -8898,28 +8840,28 @@
         <v>1</v>
       </c>
       <c r="AE10" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="s">
         <v>246</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AK10" t="s">
         <v>247</v>
       </c>
-      <c r="AH10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="s">
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="s">
         <v>248</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AN10" t="s">
         <v>249</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>250</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>251</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -8943,39 +8885,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49">
       <c r="A11" t="s">
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>236</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>240</v>
+        <v>78</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L11">
         <v>0.5</v>
       </c>
       <c r="M11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P11">
         <v>0.5</v>
@@ -9008,28 +8950,28 @@
         <v>1</v>
       </c>
       <c r="AE11" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="s">
         <v>246</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AK11" t="s">
         <v>247</v>
       </c>
-      <c r="AH11" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="s">
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="s">
         <v>248</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AN11" t="s">
         <v>249</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>250</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>251</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -9053,39 +8995,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:49">
       <c r="A12" t="s">
         <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H12" t="s">
+        <v>239</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
         <v>241</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
-        <v>243</v>
       </c>
       <c r="L12">
         <v>0.5</v>
       </c>
       <c r="M12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P12">
         <v>0.5</v>
@@ -9118,28 +9060,28 @@
         <v>1</v>
       </c>
       <c r="AE12" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="s">
         <v>246</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AK12" t="s">
         <v>247</v>
       </c>
-      <c r="AH12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="s">
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="s">
         <v>248</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AN12" t="s">
         <v>249</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>250</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>251</v>
       </c>
       <c r="AO12">
         <v>0</v>
@@ -9163,39 +9105,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:49">
       <c r="A13" t="s">
         <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13">
         <v>10</v>
       </c>
       <c r="G13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" t="s">
         <v>77</v>
       </c>
-      <c r="H13" t="s">
-        <v>82</v>
-      </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L13">
         <v>0.5</v>
       </c>
       <c r="M13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P13">
         <v>0.5</v>
@@ -9228,28 +9170,28 @@
         <v>1</v>
       </c>
       <c r="AE13" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="s">
         <v>246</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AK13" t="s">
         <v>247</v>
       </c>
-      <c r="AH13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="s">
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="s">
         <v>248</v>
       </c>
-      <c r="AK13" t="s">
+      <c r="AN13" t="s">
         <v>249</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>250</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>251</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -9273,39 +9215,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49">
       <c r="A14" t="s">
         <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14">
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L14">
         <v>0.5</v>
       </c>
       <c r="M14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P14">
         <v>0.5</v>
@@ -9338,28 +9280,28 @@
         <v>1</v>
       </c>
       <c r="AE14" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="s">
         <v>246</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AK14" t="s">
         <v>247</v>
       </c>
-      <c r="AH14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="s">
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="s">
         <v>248</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AN14" t="s">
         <v>249</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>250</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>251</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -9383,39 +9325,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49">
       <c r="A15" t="s">
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15">
         <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H15" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L15">
         <v>0.5</v>
       </c>
       <c r="M15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P15">
         <v>0.5</v>
@@ -9448,28 +9390,28 @@
         <v>1</v>
       </c>
       <c r="AE15" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="s">
         <v>246</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AK15" t="s">
         <v>247</v>
       </c>
-      <c r="AH15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="s">
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="s">
         <v>248</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AN15" t="s">
         <v>249</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>250</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>251</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -9493,39 +9435,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:49">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
       </c>
       <c r="E16">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>235</v>
+        <v>72</v>
       </c>
       <c r="H16" t="s">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L16">
         <v>0.5</v>
       </c>
       <c r="M16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P16">
         <v>0.5</v>
@@ -9558,28 +9500,28 @@
         <v>1</v>
       </c>
       <c r="AE16" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="s">
         <v>246</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AK16" t="s">
         <v>247</v>
       </c>
-      <c r="AH16" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="s">
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="s">
         <v>248</v>
       </c>
-      <c r="AK16" t="s">
+      <c r="AN16" t="s">
         <v>249</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>250</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>251</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -9603,9 +9545,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:49">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
         <v>68</v>
@@ -9614,28 +9556,28 @@
         <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L17">
         <v>0.5</v>
       </c>
       <c r="M17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P17">
         <v>0.5</v>
@@ -9668,28 +9610,28 @@
         <v>1</v>
       </c>
       <c r="AE17" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="s">
         <v>246</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AK17" t="s">
         <v>247</v>
       </c>
-      <c r="AH17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="s">
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="s">
         <v>248</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AN17" t="s">
         <v>249</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>250</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>251</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -9713,9 +9655,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:49">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
         <v>69</v>
@@ -9724,28 +9666,28 @@
         <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L18">
         <v>0.5</v>
       </c>
       <c r="M18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P18">
         <v>0.5</v>
@@ -9778,28 +9720,28 @@
         <v>1</v>
       </c>
       <c r="AE18" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="s">
         <v>246</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AK18" t="s">
         <v>247</v>
       </c>
-      <c r="AH18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="s">
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="s">
         <v>248</v>
       </c>
-      <c r="AK18" t="s">
+      <c r="AN18" t="s">
         <v>249</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>250</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>251</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -9823,9 +9765,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:49">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -9834,28 +9776,28 @@
         <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L19">
         <v>0.5</v>
       </c>
       <c r="M19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P19">
         <v>0.5</v>
@@ -9888,28 +9830,28 @@
         <v>1</v>
       </c>
       <c r="AE19" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="s">
         <v>246</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AK19" t="s">
         <v>247</v>
       </c>
-      <c r="AH19" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="s">
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="s">
         <v>248</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AN19" t="s">
         <v>249</v>
-      </c>
-      <c r="AL19">
-        <v>0</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>250</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>251</v>
       </c>
       <c r="AO19">
         <v>0</v>
@@ -9933,39 +9875,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:49">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20">
         <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L20">
         <v>0.5</v>
       </c>
       <c r="M20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P20">
         <v>0.5</v>
@@ -9998,28 +9940,28 @@
         <v>1</v>
       </c>
       <c r="AE20" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="s">
         <v>246</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AK20" t="s">
         <v>247</v>
       </c>
-      <c r="AH20" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="s">
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="s">
         <v>248</v>
       </c>
-      <c r="AK20" t="s">
+      <c r="AN20" t="s">
         <v>249</v>
-      </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>250</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>251</v>
       </c>
       <c r="AO20">
         <v>0</v>
@@ -10043,39 +9985,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:49">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E21">
         <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L21">
         <v>0.5</v>
       </c>
       <c r="M21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P21">
         <v>0.5</v>
@@ -10108,28 +10050,28 @@
         <v>1</v>
       </c>
       <c r="AE21" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="s">
         <v>246</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AK21" t="s">
         <v>247</v>
       </c>
-      <c r="AH21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="s">
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="s">
         <v>248</v>
       </c>
-      <c r="AK21" t="s">
+      <c r="AN21" t="s">
         <v>249</v>
-      </c>
-      <c r="AL21">
-        <v>0</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>250</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>251</v>
       </c>
       <c r="AO21">
         <v>0</v>
@@ -10150,226 +10092,6 @@
         <v>0</v>
       </c>
       <c r="AW21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22">
-        <v>10</v>
-      </c>
-      <c r="G22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H22" t="s">
-        <v>78</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="K22" t="s">
-        <v>243</v>
-      </c>
-      <c r="L22">
-        <v>0.5</v>
-      </c>
-      <c r="M22" t="s">
-        <v>244</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22" t="s">
-        <v>245</v>
-      </c>
-      <c r="P22">
-        <v>0.5</v>
-      </c>
-      <c r="R22">
-        <v>100</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>1</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>246</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>247</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>248</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>249</v>
-      </c>
-      <c r="AL22">
-        <v>0</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>250</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>251</v>
-      </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
-      <c r="AQ22">
-        <v>100</v>
-      </c>
-      <c r="AS22">
-        <v>35</v>
-      </c>
-      <c r="AT22">
-        <v>35</v>
-      </c>
-      <c r="AU22">
-        <v>0</v>
-      </c>
-      <c r="AV22">
-        <v>0</v>
-      </c>
-      <c r="AW22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23">
-        <v>10</v>
-      </c>
-      <c r="G23" t="s">
-        <v>73</v>
-      </c>
-      <c r="H23" t="s">
-        <v>78</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="K23" t="s">
-        <v>243</v>
-      </c>
-      <c r="L23">
-        <v>0.5</v>
-      </c>
-      <c r="M23" t="s">
-        <v>244</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23" t="s">
-        <v>245</v>
-      </c>
-      <c r="P23">
-        <v>0.5</v>
-      </c>
-      <c r="R23">
-        <v>100</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>1</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>246</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>247</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>248</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>249</v>
-      </c>
-      <c r="AL23">
-        <v>0</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>250</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>251</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AQ23">
-        <v>100</v>
-      </c>
-      <c r="AS23">
-        <v>35</v>
-      </c>
-      <c r="AT23">
-        <v>35</v>
-      </c>
-      <c r="AU23">
-        <v>0</v>
-      </c>
-      <c r="AV23">
-        <v>0</v>
-      </c>
-      <c r="AW23">
         <v>0</v>
       </c>
     </row>

--- a/OpsAndMats/8033334_HD Drive Unit.xlsx
+++ b/OpsAndMats/8033334_HD Drive Unit.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="249">
   <si>
     <t>Item</t>
   </si>
@@ -158,9 +158,6 @@
     <t>8026575</t>
   </si>
   <si>
-    <t>8026574</t>
-  </si>
-  <si>
     <t>8033317</t>
   </si>
   <si>
@@ -182,6 +179,9 @@
     <t>8026533</t>
   </si>
   <si>
+    <t>8025319-10</t>
+  </si>
+  <si>
     <t>8033334-X</t>
   </si>
   <si>
@@ -203,9 +203,6 @@
     <t>Drive Wheel &amp; Stirrup Assy, M76FG</t>
   </si>
   <si>
-    <t>Drive Wheel, PTO Assembly, M76FG</t>
-  </si>
-  <si>
     <t>Auto-Tensioner Pully Pivot Plate, M76FG…</t>
   </si>
   <si>
@@ -227,6 +224,9 @@
     <t>Drive unit shaft coupler-76F</t>
   </si>
   <si>
+    <t>Special 18-8 St. Stl. Studs</t>
+  </si>
+  <si>
     <t>Drive Unit Assembly, M76FG, M204H, M205H</t>
   </si>
   <si>
@@ -257,6 +257,12 @@
     <t>6090013</t>
   </si>
   <si>
+    <t>1527602</t>
+  </si>
+  <si>
+    <t>1527601</t>
+  </si>
+  <si>
     <t>8026535-A</t>
   </si>
   <si>
@@ -281,12 +287,6 @@
     <t>1033501</t>
   </si>
   <si>
-    <t>1527601</t>
-  </si>
-  <si>
-    <t>1527602</t>
-  </si>
-  <si>
     <t>2477626-1</t>
   </si>
   <si>
@@ -302,6 +302,111 @@
     <t>8033976</t>
   </si>
   <si>
+    <t>9070060-187</t>
+  </si>
+  <si>
+    <t>6741022</t>
+  </si>
+  <si>
+    <t>9073040-049</t>
+  </si>
+  <si>
+    <t>8033329</t>
+  </si>
+  <si>
+    <t>8026600</t>
+  </si>
+  <si>
+    <t>1477202</t>
+  </si>
+  <si>
+    <t>3030019</t>
+  </si>
+  <si>
+    <t>1001701</t>
+  </si>
+  <si>
+    <t>1402820</t>
+  </si>
+  <si>
+    <t>1402824</t>
+  </si>
+  <si>
+    <t>1527401</t>
+  </si>
+  <si>
+    <t>1527402</t>
+  </si>
+  <si>
+    <t>1577401</t>
+  </si>
+  <si>
+    <t>1032801</t>
+  </si>
+  <si>
+    <t>6090005</t>
+  </si>
+  <si>
+    <t>6680010</t>
+  </si>
+  <si>
+    <t>6140094-U</t>
+  </si>
+  <si>
+    <t>9816011</t>
+  </si>
+  <si>
+    <t>6620009-U</t>
+  </si>
+  <si>
+    <t>8026533-U</t>
+  </si>
+  <si>
+    <t>1702801</t>
+  </si>
+  <si>
+    <t>1210902</t>
+  </si>
+  <si>
+    <t>1575501</t>
+  </si>
+  <si>
+    <t>8025103</t>
+  </si>
+  <si>
+    <t>6110001</t>
+  </si>
+  <si>
+    <t>8026509</t>
+  </si>
+  <si>
+    <t>6090019</t>
+  </si>
+  <si>
+    <t>1402808</t>
+  </si>
+  <si>
+    <t>1231703</t>
+  </si>
+  <si>
+    <t>1576101</t>
+  </si>
+  <si>
+    <t>1506101</t>
+  </si>
+  <si>
+    <t>1211404</t>
+  </si>
+  <si>
+    <t>1575901</t>
+  </si>
+  <si>
+    <t>8033369</t>
+  </si>
+  <si>
+    <t>1001401</t>
+  </si>
+  <si>
     <t>1422008</t>
   </si>
   <si>
@@ -314,114 +419,6 @@
     <t>6460080-U</t>
   </si>
   <si>
-    <t>9070060-187</t>
-  </si>
-  <si>
-    <t>6741022</t>
-  </si>
-  <si>
-    <t>9073040-049</t>
-  </si>
-  <si>
-    <t>8033329</t>
-  </si>
-  <si>
-    <t>8026600</t>
-  </si>
-  <si>
-    <t>1477202</t>
-  </si>
-  <si>
-    <t>3030019</t>
-  </si>
-  <si>
-    <t>1001701</t>
-  </si>
-  <si>
-    <t>1402820</t>
-  </si>
-  <si>
-    <t>1402824</t>
-  </si>
-  <si>
-    <t>1527401</t>
-  </si>
-  <si>
-    <t>1527402</t>
-  </si>
-  <si>
-    <t>1577401</t>
-  </si>
-  <si>
-    <t>1032801</t>
-  </si>
-  <si>
-    <t>6090005</t>
-  </si>
-  <si>
-    <t>6680010</t>
-  </si>
-  <si>
-    <t>6140094-U</t>
-  </si>
-  <si>
-    <t>9816011</t>
-  </si>
-  <si>
-    <t>6620009-U</t>
-  </si>
-  <si>
-    <t>8026533-U</t>
-  </si>
-  <si>
-    <t>1210902</t>
-  </si>
-  <si>
-    <t>1575501</t>
-  </si>
-  <si>
-    <t>8025103</t>
-  </si>
-  <si>
-    <t>6110001</t>
-  </si>
-  <si>
-    <t>8026509</t>
-  </si>
-  <si>
-    <t>6090019</t>
-  </si>
-  <si>
-    <t>1402808</t>
-  </si>
-  <si>
-    <t>1231703</t>
-  </si>
-  <si>
-    <t>1576101</t>
-  </si>
-  <si>
-    <t>1506101</t>
-  </si>
-  <si>
-    <t>1211404</t>
-  </si>
-  <si>
-    <t>1033001</t>
-  </si>
-  <si>
-    <t>1575901</t>
-  </si>
-  <si>
-    <t>8033369</t>
-  </si>
-  <si>
-    <t>1162801</t>
-  </si>
-  <si>
-    <t>1507401</t>
-  </si>
-  <si>
     <t>8027876-1</t>
   </si>
   <si>
@@ -431,6 +428,9 @@
     <t>ball brng., (1.125"OD, .500"ID)</t>
   </si>
   <si>
+    <t>Washer, AN, ½, St. Stl.</t>
+  </si>
+  <si>
     <t>VAC, molding, Drive wheel, M76FG</t>
   </si>
   <si>
@@ -455,9 +455,6 @@
     <t>Hex Nut, full, ½-13, St. Stl.</t>
   </si>
   <si>
-    <t>Washer, AN, ½, St. Stl.</t>
-  </si>
-  <si>
     <t>Shoulder Bolt, ½, 3 1/4, Pl. Stl.</t>
   </si>
   <si>
@@ -473,6 +470,111 @@
     <t>BUSHING PRECISION ANLE ADJ 76F/G</t>
   </si>
   <si>
+    <t>3/16 x 3/4 #304 St. Steel</t>
+  </si>
+  <si>
+    <t>Torsion springs, St.stl., .125 wire dia…</t>
+  </si>
+  <si>
+    <t>1/2" OD x .049 wall St.Steel tube</t>
+  </si>
+  <si>
+    <t>Tensioner housing</t>
+  </si>
+  <si>
+    <t>Drive unit tens.pulley-76F</t>
+  </si>
+  <si>
+    <t>Shoulder Bolt, ¼, 1/4, St. Stl.</t>
+  </si>
+  <si>
+    <t>arc, st.stl., .265"ID, .490"OD</t>
+  </si>
+  <si>
+    <t>Hex Nut, 10-32, St. Stl.</t>
+  </si>
+  <si>
+    <t>HHCS, 3/8-16, 2 1/2, St. Stl.</t>
+  </si>
+  <si>
+    <t>HHCS, 3/8-16, 3, St. Stl.</t>
+  </si>
+  <si>
+    <t>Washer, AN, 3/8, St. Stl.</t>
+  </si>
+  <si>
+    <t>Washer, AN, 3/8, St. Stl., Light</t>
+  </si>
+  <si>
+    <t>Washer, Split Lock, Med, 3/8, St. Stl.</t>
+  </si>
+  <si>
+    <t>Hex Nut, full, 3/8-16, St. Stl.</t>
+  </si>
+  <si>
+    <t>ball brng., (1.4375"OD, .3750"ID)</t>
+  </si>
+  <si>
+    <t>Rubber slotted stem flat bumper, 9/16" …</t>
+  </si>
+  <si>
+    <t>taper split bushing</t>
+  </si>
+  <si>
+    <t>Zinc Plating</t>
+  </si>
+  <si>
+    <t>V-belt pulley, QD type, 4-3/8"OD, 3.6 p…</t>
+  </si>
+  <si>
+    <t>Coupler, Drive Shaft, M76FG, unplated</t>
+  </si>
+  <si>
+    <t>Threaded Rod, 3/8-16, St. Stl.</t>
+  </si>
+  <si>
+    <t>M.Scr, Rnd Hd., 4-40, 1/4, St. Stl.</t>
+  </si>
+  <si>
+    <t>Washer, Split Lock, Med, #4, St. Stl.</t>
+  </si>
+  <si>
+    <t>Drive unit angle pointer</t>
+  </si>
+  <si>
+    <t>"V" belt, 1/2" wide, 43"lg.</t>
+  </si>
+  <si>
+    <t>Belt guard for drive housing</t>
+  </si>
+  <si>
+    <t>ball brng., flanged, nylon retainer</t>
+  </si>
+  <si>
+    <t>HHCS, 3/8-16, 1, St. Stl.</t>
+  </si>
+  <si>
+    <t>M.Scr, Bnd Hd., 10-32, 3/8, St. Stl.</t>
+  </si>
+  <si>
+    <t>Washer, Split Lock, Med, #10, St. Stl.</t>
+  </si>
+  <si>
+    <t>Washer, Standard, #10, St. Stl.</t>
+  </si>
+  <si>
+    <t>M.Scr, Rnd Hd., 8-32, 1/2, St. Stl.</t>
+  </si>
+  <si>
+    <t>Washer, Split Lock, Med, #8, St. Stl.</t>
+  </si>
+  <si>
+    <t>Drive housing</t>
+  </si>
+  <si>
+    <t>Hex Nut, 8-32, St. Stl.</t>
+  </si>
+  <si>
     <t>SHCS, ¼-20, 1, St. Stl.</t>
   </si>
   <si>
@@ -483,111 +585,6 @@
   </si>
   <si>
     <t>Mach. Key, Zn.Pl., 1/4" sq., undersized</t>
-  </si>
-  <si>
-    <t>3/16 x 3/4 #304 St. Steel</t>
-  </si>
-  <si>
-    <t>Torsion springs, St.stl., .125 wire dia…</t>
-  </si>
-  <si>
-    <t>1/2" OD x .049 wall St.Steel tube</t>
-  </si>
-  <si>
-    <t>Tensioner housing</t>
-  </si>
-  <si>
-    <t>Drive unit tens.pulley-76F</t>
-  </si>
-  <si>
-    <t>Shoulder Bolt, ¼, 1/4, St. Stl.</t>
-  </si>
-  <si>
-    <t>arc, st.stl., .265"ID, .490"OD</t>
-  </si>
-  <si>
-    <t>Hex Nut, 10-32, St. Stl.</t>
-  </si>
-  <si>
-    <t>HHCS, 3/8-16, 2 1/2, St. Stl.</t>
-  </si>
-  <si>
-    <t>HHCS, 3/8-16, 3, St. Stl.</t>
-  </si>
-  <si>
-    <t>Washer, AN, 3/8, St. Stl.</t>
-  </si>
-  <si>
-    <t>Washer, Split Lock, Med, 3/8, St. Stl.</t>
-  </si>
-  <si>
-    <t>Hex Nut, full, 3/8-16, St. Stl.</t>
-  </si>
-  <si>
-    <t>ball brng., (1.4375"OD, .3750"ID)</t>
-  </si>
-  <si>
-    <t>Rubber slotted stem flat bumper, 9/16" …</t>
-  </si>
-  <si>
-    <t>taper split bushing</t>
-  </si>
-  <si>
-    <t>Zinc Plating</t>
-  </si>
-  <si>
-    <t>V-belt pulley, QD type, 4-3/8"OD, 3.6 p…</t>
-  </si>
-  <si>
-    <t>Coupler, Drive Shaft, M76FG, unplated</t>
-  </si>
-  <si>
-    <t>M.Scr, Rnd Hd., 4-40, 1/4, St. Stl.</t>
-  </si>
-  <si>
-    <t>Washer, Split Lock, Med, #4, St. Stl.</t>
-  </si>
-  <si>
-    <t>Drive unit angle pointer</t>
-  </si>
-  <si>
-    <t>"V" belt, 1/2" wide, 43"lg.</t>
-  </si>
-  <si>
-    <t>Belt guard for drive housing</t>
-  </si>
-  <si>
-    <t>ball brng., flanged, nylon retainer</t>
-  </si>
-  <si>
-    <t>HHCS, 3/8-16, 1, St. Stl.</t>
-  </si>
-  <si>
-    <t>M.Scr, Bnd Hd., 10-32, 3/8, St. Stl.</t>
-  </si>
-  <si>
-    <t>Washer, Split Lock, Med, #10, St. Stl.</t>
-  </si>
-  <si>
-    <t>Washer, Standard, #10, St. Stl.</t>
-  </si>
-  <si>
-    <t>M.Scr, Rnd Hd., 8-32, 1/2, St. Stl.</t>
-  </si>
-  <si>
-    <t>Hex Nut, full, 3/8-32, St. Stl.</t>
-  </si>
-  <si>
-    <t>Washer, Split Lock, Med, #8, St. Stl.</t>
-  </si>
-  <si>
-    <t>Drive housing</t>
-  </si>
-  <si>
-    <t>Nut, Acorn, 3/8-16, St. Stl.</t>
-  </si>
-  <si>
-    <t>Washer, Standard, 3/8, St. Stl.</t>
   </si>
   <si>
     <t>Precision Angle Adjuster, M76FG, M204, …</t>
@@ -1122,7 +1119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ79"/>
+  <dimension ref="A1:AQ78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1297,10 +1294,10 @@
         <v>1</v>
       </c>
       <c r="T2" t="s">
+        <v>191</v>
+      </c>
+      <c r="U2" t="s">
         <v>192</v>
-      </c>
-      <c r="U2" t="s">
-        <v>193</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -1362,7 +1359,7 @@
         <v>79</v>
       </c>
       <c r="J3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -1380,10 +1377,10 @@
         <v>2</v>
       </c>
       <c r="T3" t="s">
+        <v>191</v>
+      </c>
+      <c r="U3" t="s">
         <v>192</v>
-      </c>
-      <c r="U3" t="s">
-        <v>193</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -1427,31 +1424,31 @@
     </row>
     <row r="4" spans="1:43">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1460,13 +1457,13 @@
         <v>8</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T4" t="s">
+        <v>191</v>
+      </c>
+      <c r="U4" t="s">
         <v>192</v>
-      </c>
-      <c r="U4" t="s">
-        <v>193</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1510,31 +1507,31 @@
     </row>
     <row r="5" spans="1:43">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1543,13 +1540,13 @@
         <v>8</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T5" t="s">
+        <v>191</v>
+      </c>
+      <c r="U5" t="s">
         <v>192</v>
-      </c>
-      <c r="U5" t="s">
-        <v>193</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1599,7 +1596,7 @@
         <v>59</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
         <v>72</v>
@@ -1608,10 +1605,10 @@
         <v>76</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="J6" t="s">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1629,10 +1626,10 @@
         <v>1</v>
       </c>
       <c r="T6" t="s">
+        <v>191</v>
+      </c>
+      <c r="U6" t="s">
         <v>192</v>
-      </c>
-      <c r="U6" t="s">
-        <v>193</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1676,10 +1673,10 @@
     </row>
     <row r="7" spans="1:43">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -1694,13 +1691,13 @@
         <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1712,10 +1709,10 @@
         <v>1</v>
       </c>
       <c r="T7" t="s">
+        <v>191</v>
+      </c>
+      <c r="U7" t="s">
         <v>192</v>
-      </c>
-      <c r="U7" t="s">
-        <v>193</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -1759,13 +1756,13 @@
     </row>
     <row r="8" spans="1:43">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
         <v>72</v>
@@ -1777,13 +1774,13 @@
         <v>83</v>
       </c>
       <c r="J8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1795,10 +1792,10 @@
         <v>1</v>
       </c>
       <c r="T8" t="s">
+        <v>191</v>
+      </c>
+      <c r="U8" t="s">
         <v>192</v>
-      </c>
-      <c r="U8" t="s">
-        <v>193</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1842,25 +1839,25 @@
     </row>
     <row r="9" spans="1:43">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9">
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s">
         <v>84</v>
       </c>
       <c r="J9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1878,10 +1875,10 @@
         <v>1</v>
       </c>
       <c r="T9" t="s">
+        <v>191</v>
+      </c>
+      <c r="U9" t="s">
         <v>192</v>
-      </c>
-      <c r="U9" t="s">
-        <v>193</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1925,25 +1922,25 @@
     </row>
     <row r="10" spans="1:43">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10">
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1961,10 +1958,10 @@
         <v>1</v>
       </c>
       <c r="T10" t="s">
+        <v>191</v>
+      </c>
+      <c r="U10" t="s">
         <v>192</v>
-      </c>
-      <c r="U10" t="s">
-        <v>193</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -2023,16 +2020,16 @@
         <v>75</v>
       </c>
       <c r="I11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -2044,10 +2041,10 @@
         <v>1</v>
       </c>
       <c r="T11" t="s">
+        <v>191</v>
+      </c>
+      <c r="U11" t="s">
         <v>192</v>
-      </c>
-      <c r="U11" t="s">
-        <v>193</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -2106,16 +2103,16 @@
         <v>75</v>
       </c>
       <c r="I12" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="J12" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="K12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -2127,10 +2124,10 @@
         <v>1</v>
       </c>
       <c r="T12" t="s">
+        <v>191</v>
+      </c>
+      <c r="U12" t="s">
         <v>192</v>
-      </c>
-      <c r="U12" t="s">
-        <v>193</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -2192,13 +2189,13 @@
         <v>87</v>
       </c>
       <c r="J13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -2210,10 +2207,10 @@
         <v>1</v>
       </c>
       <c r="T13" t="s">
+        <v>191</v>
+      </c>
+      <c r="U13" t="s">
         <v>192</v>
-      </c>
-      <c r="U13" t="s">
-        <v>193</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -2275,13 +2272,13 @@
         <v>88</v>
       </c>
       <c r="J14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -2290,13 +2287,13 @@
         <v>8</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T14" t="s">
+        <v>191</v>
+      </c>
+      <c r="U14" t="s">
         <v>192</v>
-      </c>
-      <c r="U14" t="s">
-        <v>193</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -2358,13 +2355,13 @@
         <v>89</v>
       </c>
       <c r="J15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -2376,10 +2373,10 @@
         <v>1</v>
       </c>
       <c r="T15" t="s">
+        <v>191</v>
+      </c>
+      <c r="U15" t="s">
         <v>192</v>
-      </c>
-      <c r="U15" t="s">
-        <v>193</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -2438,16 +2435,16 @@
         <v>75</v>
       </c>
       <c r="I16" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J16" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="K16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -2459,10 +2456,10 @@
         <v>1</v>
       </c>
       <c r="T16" t="s">
+        <v>191</v>
+      </c>
+      <c r="U16" t="s">
         <v>192</v>
-      </c>
-      <c r="U16" t="s">
-        <v>193</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -2521,16 +2518,16 @@
         <v>75</v>
       </c>
       <c r="I17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -2539,13 +2536,13 @@
         <v>8</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T17" t="s">
+        <v>191</v>
+      </c>
+      <c r="U17" t="s">
         <v>192</v>
-      </c>
-      <c r="U17" t="s">
-        <v>193</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -2604,16 +2601,16 @@
         <v>75</v>
       </c>
       <c r="I18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -2625,10 +2622,10 @@
         <v>2</v>
       </c>
       <c r="T18" t="s">
+        <v>191</v>
+      </c>
+      <c r="U18" t="s">
         <v>192</v>
-      </c>
-      <c r="U18" t="s">
-        <v>193</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -2687,16 +2684,16 @@
         <v>75</v>
       </c>
       <c r="I19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K19">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L19">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -2708,10 +2705,10 @@
         <v>2</v>
       </c>
       <c r="T19" t="s">
+        <v>191</v>
+      </c>
+      <c r="U19" t="s">
         <v>192</v>
-      </c>
-      <c r="U19" t="s">
-        <v>193</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -2770,16 +2767,16 @@
         <v>75</v>
       </c>
       <c r="I20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K20">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L20">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -2788,13 +2785,13 @@
         <v>8</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T20" t="s">
+        <v>191</v>
+      </c>
+      <c r="U20" t="s">
         <v>192</v>
-      </c>
-      <c r="U20" t="s">
-        <v>193</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -2838,10 +2835,10 @@
     </row>
     <row r="21" spans="1:43">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21">
         <v>10</v>
@@ -2853,16 +2850,16 @@
         <v>75</v>
       </c>
       <c r="I21" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="J21" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -2874,10 +2871,10 @@
         <v>1</v>
       </c>
       <c r="T21" t="s">
+        <v>191</v>
+      </c>
+      <c r="U21" t="s">
         <v>192</v>
-      </c>
-      <c r="U21" t="s">
-        <v>193</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -2930,22 +2927,22 @@
         <v>10</v>
       </c>
       <c r="G22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H22" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I22" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="J22" t="s">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -2954,10 +2951,10 @@
         <v>8</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U22" t="s">
         <v>193</v>
@@ -3004,31 +3001,31 @@
     </row>
     <row r="23" spans="1:43">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E23">
         <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H23" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="J23" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -3040,10 +3037,10 @@
         <v>1</v>
       </c>
       <c r="T23" t="s">
+        <v>191</v>
+      </c>
+      <c r="U23" t="s">
         <v>192</v>
-      </c>
-      <c r="U23" t="s">
-        <v>193</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -3087,31 +3084,31 @@
     </row>
     <row r="24" spans="1:43">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E24">
         <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I24" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -3120,10 +3117,10 @@
         <v>8</v>
       </c>
       <c r="S24">
-        <v>4</v>
+        <v>1.554</v>
       </c>
       <c r="T24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U24" t="s">
         <v>193</v>
@@ -3170,10 +3167,10 @@
     </row>
     <row r="25" spans="1:43">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E25">
         <v>10</v>
@@ -3185,16 +3182,16 @@
         <v>75</v>
       </c>
       <c r="I25" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -3203,13 +3200,13 @@
         <v>8</v>
       </c>
       <c r="S25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T25" t="s">
+        <v>191</v>
+      </c>
+      <c r="U25" t="s">
         <v>192</v>
-      </c>
-      <c r="U25" t="s">
-        <v>193</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -3253,10 +3250,10 @@
     </row>
     <row r="26" spans="1:43">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E26">
         <v>10</v>
@@ -3268,16 +3265,16 @@
         <v>75</v>
       </c>
       <c r="I26" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="J26" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="K26">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -3286,13 +3283,13 @@
         <v>8</v>
       </c>
       <c r="S26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T26" t="s">
+        <v>191</v>
+      </c>
+      <c r="U26" t="s">
         <v>192</v>
-      </c>
-      <c r="U26" t="s">
-        <v>193</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -3336,10 +3333,10 @@
     </row>
     <row r="27" spans="1:43">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E27">
         <v>10</v>
@@ -3351,16 +3348,16 @@
         <v>75</v>
       </c>
       <c r="I27" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="J27" t="s">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="K27">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L27">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -3369,13 +3366,13 @@
         <v>8</v>
       </c>
       <c r="S27">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="T27" t="s">
+        <v>191</v>
+      </c>
+      <c r="U27" t="s">
         <v>192</v>
-      </c>
-      <c r="U27" t="s">
-        <v>194</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -3419,10 +3416,10 @@
     </row>
     <row r="28" spans="1:43">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E28">
         <v>10</v>
@@ -3434,16 +3431,16 @@
         <v>75</v>
       </c>
       <c r="I28" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="J28" t="s">
-        <v>155</v>
+        <v>63</v>
       </c>
       <c r="K28">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L28">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -3452,13 +3449,13 @@
         <v>8</v>
       </c>
       <c r="S28">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="T28" t="s">
+        <v>191</v>
+      </c>
+      <c r="U28" t="s">
         <v>192</v>
-      </c>
-      <c r="U28" t="s">
-        <v>194</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -3502,31 +3499,31 @@
     </row>
     <row r="29" spans="1:43">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E29">
         <v>10</v>
       </c>
       <c r="G29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I29" t="s">
         <v>99</v>
       </c>
       <c r="J29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -3535,13 +3532,13 @@
         <v>8</v>
       </c>
       <c r="S29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T29" t="s">
+        <v>191</v>
+      </c>
+      <c r="U29" t="s">
         <v>192</v>
-      </c>
-      <c r="U29" t="s">
-        <v>194</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -3585,31 +3582,31 @@
     </row>
     <row r="30" spans="1:43">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E30">
         <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H30" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I30" t="s">
         <v>100</v>
       </c>
       <c r="J30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -3621,10 +3618,10 @@
         <v>1</v>
       </c>
       <c r="T30" t="s">
+        <v>191</v>
+      </c>
+      <c r="U30" t="s">
         <v>192</v>
-      </c>
-      <c r="U30" t="s">
-        <v>193</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -3677,22 +3674,22 @@
         <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I31" t="s">
         <v>101</v>
       </c>
       <c r="J31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -3701,13 +3698,13 @@
         <v>8</v>
       </c>
       <c r="S31">
-        <v>1.554</v>
+        <v>4</v>
       </c>
       <c r="T31" t="s">
+        <v>191</v>
+      </c>
+      <c r="U31" t="s">
         <v>192</v>
-      </c>
-      <c r="U31" t="s">
-        <v>194</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -3751,10 +3748,10 @@
     </row>
     <row r="32" spans="1:43">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E32">
         <v>10</v>
@@ -3769,13 +3766,13 @@
         <v>102</v>
       </c>
       <c r="J32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -3787,10 +3784,10 @@
         <v>1</v>
       </c>
       <c r="T32" t="s">
+        <v>191</v>
+      </c>
+      <c r="U32" t="s">
         <v>192</v>
-      </c>
-      <c r="U32" t="s">
-        <v>193</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -3834,10 +3831,10 @@
     </row>
     <row r="33" spans="1:43">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E33">
         <v>10</v>
@@ -3849,16 +3846,16 @@
         <v>75</v>
       </c>
       <c r="I33" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="J33" t="s">
-        <v>63</v>
+        <v>159</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L33">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -3870,10 +3867,10 @@
         <v>1</v>
       </c>
       <c r="T33" t="s">
+        <v>191</v>
+      </c>
+      <c r="U33" t="s">
         <v>192</v>
-      </c>
-      <c r="U33" t="s">
-        <v>193</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -3917,10 +3914,10 @@
     </row>
     <row r="34" spans="1:43">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E34">
         <v>10</v>
@@ -3932,16 +3929,16 @@
         <v>75</v>
       </c>
       <c r="I34" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="J34" t="s">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L34">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -3953,10 +3950,10 @@
         <v>1</v>
       </c>
       <c r="T34" t="s">
+        <v>191</v>
+      </c>
+      <c r="U34" t="s">
         <v>192</v>
-      </c>
-      <c r="U34" t="s">
-        <v>193</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -4000,10 +3997,10 @@
     </row>
     <row r="35" spans="1:43">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E35">
         <v>10</v>
@@ -4015,16 +4012,16 @@
         <v>75</v>
       </c>
       <c r="I35" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="J35" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="K35">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -4033,13 +4030,13 @@
         <v>8</v>
       </c>
       <c r="S35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T35" t="s">
+        <v>191</v>
+      </c>
+      <c r="U35" t="s">
         <v>192</v>
-      </c>
-      <c r="U35" t="s">
-        <v>193</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -4083,10 +4080,10 @@
     </row>
     <row r="36" spans="1:43">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E36">
         <v>10</v>
@@ -4098,16 +4095,16 @@
         <v>75</v>
       </c>
       <c r="I36" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J36" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K36">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L36">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -4116,13 +4113,13 @@
         <v>8</v>
       </c>
       <c r="S36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T36" t="s">
+        <v>191</v>
+      </c>
+      <c r="U36" t="s">
         <v>192</v>
-      </c>
-      <c r="U36" t="s">
-        <v>193</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -4166,10 +4163,10 @@
     </row>
     <row r="37" spans="1:43">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E37">
         <v>10</v>
@@ -4181,16 +4178,16 @@
         <v>75</v>
       </c>
       <c r="I37" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J37" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K37">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="L37">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -4199,13 +4196,13 @@
         <v>8</v>
       </c>
       <c r="S37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T37" t="s">
+        <v>191</v>
+      </c>
+      <c r="U37" t="s">
         <v>192</v>
-      </c>
-      <c r="U37" t="s">
-        <v>193</v>
       </c>
       <c r="V37">
         <v>0</v>
@@ -4249,10 +4246,10 @@
     </row>
     <row r="38" spans="1:43">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E38">
         <v>10</v>
@@ -4264,16 +4261,16 @@
         <v>75</v>
       </c>
       <c r="I38" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J38" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K38">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="L38">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -4282,13 +4279,13 @@
         <v>8</v>
       </c>
       <c r="S38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T38" t="s">
+        <v>191</v>
+      </c>
+      <c r="U38" t="s">
         <v>192</v>
-      </c>
-      <c r="U38" t="s">
-        <v>193</v>
       </c>
       <c r="V38">
         <v>0</v>
@@ -4332,10 +4329,10 @@
     </row>
     <row r="39" spans="1:43">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E39">
         <v>10</v>
@@ -4347,16 +4344,16 @@
         <v>75</v>
       </c>
       <c r="I39" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J39" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K39">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L39">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -4365,13 +4362,13 @@
         <v>8</v>
       </c>
       <c r="S39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T39" t="s">
+        <v>191</v>
+      </c>
+      <c r="U39" t="s">
         <v>192</v>
-      </c>
-      <c r="U39" t="s">
-        <v>193</v>
       </c>
       <c r="V39">
         <v>0</v>
@@ -4415,10 +4412,10 @@
     </row>
     <row r="40" spans="1:43">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E40">
         <v>10</v>
@@ -4430,16 +4427,16 @@
         <v>75</v>
       </c>
       <c r="I40" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J40" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K40">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L40">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -4451,10 +4448,10 @@
         <v>1</v>
       </c>
       <c r="T40" t="s">
+        <v>191</v>
+      </c>
+      <c r="U40" t="s">
         <v>192</v>
-      </c>
-      <c r="U40" t="s">
-        <v>193</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -4507,22 +4504,22 @@
         <v>10</v>
       </c>
       <c r="G41" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H41" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I41" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J41" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K41">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L41">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -4534,10 +4531,10 @@
         <v>1</v>
       </c>
       <c r="T41" t="s">
+        <v>191</v>
+      </c>
+      <c r="U41" t="s">
         <v>192</v>
-      </c>
-      <c r="U41" t="s">
-        <v>193</v>
       </c>
       <c r="V41">
         <v>0</v>
@@ -4590,22 +4587,22 @@
         <v>10</v>
       </c>
       <c r="G42" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I42" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J42" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K42">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L42">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -4614,13 +4611,13 @@
         <v>8</v>
       </c>
       <c r="S42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T42" t="s">
+        <v>191</v>
+      </c>
+      <c r="U42" t="s">
         <v>192</v>
-      </c>
-      <c r="U42" t="s">
-        <v>193</v>
       </c>
       <c r="V42">
         <v>0</v>
@@ -4664,31 +4661,31 @@
     </row>
     <row r="43" spans="1:43">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E43">
         <v>10</v>
       </c>
       <c r="G43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H43" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I43" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J43" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K43">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L43">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -4700,10 +4697,10 @@
         <v>1</v>
       </c>
       <c r="T43" t="s">
+        <v>191</v>
+      </c>
+      <c r="U43" t="s">
         <v>192</v>
-      </c>
-      <c r="U43" t="s">
-        <v>193</v>
       </c>
       <c r="V43">
         <v>0</v>
@@ -4747,31 +4744,31 @@
     </row>
     <row r="44" spans="1:43">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E44">
         <v>10</v>
       </c>
       <c r="G44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I44" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J44" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K44">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -4780,13 +4777,13 @@
         <v>8</v>
       </c>
       <c r="S44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T44" t="s">
+        <v>191</v>
+      </c>
+      <c r="U44" t="s">
         <v>192</v>
-      </c>
-      <c r="U44" t="s">
-        <v>193</v>
       </c>
       <c r="V44">
         <v>0</v>
@@ -4830,31 +4827,31 @@
     </row>
     <row r="45" spans="1:43">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E45">
         <v>10</v>
       </c>
       <c r="G45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H45" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I45" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J45" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K45">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="L45">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -4866,10 +4863,10 @@
         <v>1</v>
       </c>
       <c r="T45" t="s">
+        <v>191</v>
+      </c>
+      <c r="U45" t="s">
         <v>192</v>
-      </c>
-      <c r="U45" t="s">
-        <v>193</v>
       </c>
       <c r="V45">
         <v>0</v>
@@ -4913,31 +4910,31 @@
     </row>
     <row r="46" spans="1:43">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E46">
         <v>10</v>
       </c>
       <c r="G46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H46" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K46">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="L46">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -4946,13 +4943,13 @@
         <v>8</v>
       </c>
       <c r="S46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T46" t="s">
+        <v>191</v>
+      </c>
+      <c r="U46" t="s">
         <v>192</v>
-      </c>
-      <c r="U46" t="s">
-        <v>193</v>
       </c>
       <c r="V46">
         <v>0</v>
@@ -4996,31 +4993,31 @@
     </row>
     <row r="47" spans="1:43">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E47">
         <v>10</v>
       </c>
       <c r="G47" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H47" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I47" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J47" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K47">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L47">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -5029,10 +5026,10 @@
         <v>8</v>
       </c>
       <c r="S47">
-        <v>1</v>
+        <v>5.75</v>
       </c>
       <c r="T47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U47" t="s">
         <v>193</v>
@@ -5079,25 +5076,25 @@
     </row>
     <row r="48" spans="1:43">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E48">
         <v>10</v>
       </c>
       <c r="G48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I48" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J48" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -5112,13 +5109,13 @@
         <v>8</v>
       </c>
       <c r="S48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T48" t="s">
+        <v>191</v>
+      </c>
+      <c r="U48" t="s">
         <v>192</v>
-      </c>
-      <c r="U48" t="s">
-        <v>193</v>
       </c>
       <c r="V48">
         <v>0</v>
@@ -5162,25 +5159,25 @@
     </row>
     <row r="49" spans="1:43">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E49">
         <v>10</v>
       </c>
       <c r="G49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I49" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J49" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K49">
         <v>2</v>
@@ -5195,13 +5192,13 @@
         <v>8</v>
       </c>
       <c r="S49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T49" t="s">
+        <v>191</v>
+      </c>
+      <c r="U49" t="s">
         <v>192</v>
-      </c>
-      <c r="U49" t="s">
-        <v>193</v>
       </c>
       <c r="V49">
         <v>0</v>
@@ -5245,31 +5242,31 @@
     </row>
     <row r="50" spans="1:43">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E50">
         <v>10</v>
       </c>
       <c r="G50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I50" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J50" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -5281,10 +5278,10 @@
         <v>1</v>
       </c>
       <c r="T50" t="s">
+        <v>191</v>
+      </c>
+      <c r="U50" t="s">
         <v>192</v>
-      </c>
-      <c r="U50" t="s">
-        <v>193</v>
       </c>
       <c r="V50">
         <v>0</v>
@@ -5328,31 +5325,31 @@
     </row>
     <row r="51" spans="1:43">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E51">
         <v>10</v>
       </c>
       <c r="G51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I51" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J51" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -5364,10 +5361,10 @@
         <v>1</v>
       </c>
       <c r="T51" t="s">
+        <v>191</v>
+      </c>
+      <c r="U51" t="s">
         <v>192</v>
-      </c>
-      <c r="U51" t="s">
-        <v>193</v>
       </c>
       <c r="V51">
         <v>0</v>
@@ -5411,31 +5408,31 @@
     </row>
     <row r="52" spans="1:43">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E52">
         <v>10</v>
       </c>
       <c r="G52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I52" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J52" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -5447,10 +5444,10 @@
         <v>1</v>
       </c>
       <c r="T52" t="s">
+        <v>191</v>
+      </c>
+      <c r="U52" t="s">
         <v>192</v>
-      </c>
-      <c r="U52" t="s">
-        <v>193</v>
       </c>
       <c r="V52">
         <v>0</v>
@@ -5494,31 +5491,31 @@
     </row>
     <row r="53" spans="1:43">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E53">
         <v>10</v>
       </c>
       <c r="G53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I53" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="J53" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="K53">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L53">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -5527,13 +5524,13 @@
         <v>8</v>
       </c>
       <c r="S53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T53" t="s">
+        <v>191</v>
+      </c>
+      <c r="U53" t="s">
         <v>192</v>
-      </c>
-      <c r="U53" t="s">
-        <v>193</v>
       </c>
       <c r="V53">
         <v>0</v>
@@ -5592,16 +5589,16 @@
         <v>75</v>
       </c>
       <c r="I54" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J54" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L54">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -5610,13 +5607,13 @@
         <v>8</v>
       </c>
       <c r="S54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T54" t="s">
+        <v>191</v>
+      </c>
+      <c r="U54" t="s">
         <v>192</v>
-      </c>
-      <c r="U54" t="s">
-        <v>193</v>
       </c>
       <c r="V54">
         <v>0</v>
@@ -5675,16 +5672,16 @@
         <v>75</v>
       </c>
       <c r="I55" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="J55" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="K55">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L55">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -5693,13 +5690,13 @@
         <v>8</v>
       </c>
       <c r="S55">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T55" t="s">
+        <v>191</v>
+      </c>
+      <c r="U55" t="s">
         <v>192</v>
-      </c>
-      <c r="U55" t="s">
-        <v>193</v>
       </c>
       <c r="V55">
         <v>0</v>
@@ -5758,16 +5755,16 @@
         <v>75</v>
       </c>
       <c r="I56" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="J56" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="K56">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L56">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -5776,13 +5773,13 @@
         <v>8</v>
       </c>
       <c r="S56">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T56" t="s">
+        <v>191</v>
+      </c>
+      <c r="U56" t="s">
         <v>192</v>
-      </c>
-      <c r="U56" t="s">
-        <v>193</v>
       </c>
       <c r="V56">
         <v>0</v>
@@ -5841,16 +5838,16 @@
         <v>75</v>
       </c>
       <c r="I57" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="J57" t="s">
-        <v>178</v>
+        <v>61</v>
       </c>
       <c r="K57">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L57">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -5862,10 +5859,10 @@
         <v>1</v>
       </c>
       <c r="T57" t="s">
+        <v>191</v>
+      </c>
+      <c r="U57" t="s">
         <v>192</v>
-      </c>
-      <c r="U57" t="s">
-        <v>193</v>
       </c>
       <c r="V57">
         <v>0</v>
@@ -5930,10 +5927,10 @@
         <v>179</v>
       </c>
       <c r="K58">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L58">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -5942,13 +5939,13 @@
         <v>8</v>
       </c>
       <c r="S58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T58" t="s">
+        <v>191</v>
+      </c>
+      <c r="U58" t="s">
         <v>192</v>
-      </c>
-      <c r="U58" t="s">
-        <v>193</v>
       </c>
       <c r="V58">
         <v>0</v>
@@ -6013,10 +6010,10 @@
         <v>180</v>
       </c>
       <c r="K59">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L59">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -6025,13 +6022,13 @@
         <v>8</v>
       </c>
       <c r="S59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T59" t="s">
+        <v>191</v>
+      </c>
+      <c r="U59" t="s">
         <v>192</v>
-      </c>
-      <c r="U59" t="s">
-        <v>193</v>
       </c>
       <c r="V59">
         <v>0</v>
@@ -6096,10 +6093,10 @@
         <v>181</v>
       </c>
       <c r="K60">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="L60">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -6111,10 +6108,10 @@
         <v>4</v>
       </c>
       <c r="T60" t="s">
+        <v>191</v>
+      </c>
+      <c r="U60" t="s">
         <v>192</v>
-      </c>
-      <c r="U60" t="s">
-        <v>193</v>
       </c>
       <c r="V60">
         <v>0</v>
@@ -6173,16 +6170,16 @@
         <v>75</v>
       </c>
       <c r="I61" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="J61" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
       <c r="K61">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L61">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -6191,13 +6188,13 @@
         <v>8</v>
       </c>
       <c r="S61">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T61" t="s">
+        <v>191</v>
+      </c>
+      <c r="U61" t="s">
         <v>192</v>
-      </c>
-      <c r="U61" t="s">
-        <v>193</v>
       </c>
       <c r="V61">
         <v>0</v>
@@ -6256,16 +6253,16 @@
         <v>75</v>
       </c>
       <c r="I62" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="J62" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="K62">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="L62">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -6274,13 +6271,13 @@
         <v>8</v>
       </c>
       <c r="S62">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T62" t="s">
+        <v>191</v>
+      </c>
+      <c r="U62" t="s">
         <v>192</v>
-      </c>
-      <c r="U62" t="s">
-        <v>193</v>
       </c>
       <c r="V62">
         <v>0</v>
@@ -6339,16 +6336,16 @@
         <v>75</v>
       </c>
       <c r="I63" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="J63" t="s">
-        <v>61</v>
+        <v>183</v>
       </c>
       <c r="K63">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L63">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -6357,13 +6354,13 @@
         <v>8</v>
       </c>
       <c r="S63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T63" t="s">
+        <v>191</v>
+      </c>
+      <c r="U63" t="s">
         <v>192</v>
-      </c>
-      <c r="U63" t="s">
-        <v>193</v>
       </c>
       <c r="V63">
         <v>0</v>
@@ -6422,16 +6419,16 @@
         <v>75</v>
       </c>
       <c r="I64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J64" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K64">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L64">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -6440,13 +6437,13 @@
         <v>8</v>
       </c>
       <c r="S64">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="T64" t="s">
+        <v>191</v>
+      </c>
+      <c r="U64" t="s">
         <v>192</v>
-      </c>
-      <c r="U64" t="s">
-        <v>193</v>
       </c>
       <c r="V64">
         <v>0</v>
@@ -6505,16 +6502,16 @@
         <v>75</v>
       </c>
       <c r="I65" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="J65" t="s">
-        <v>183</v>
+        <v>69</v>
       </c>
       <c r="K65">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L65">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -6523,13 +6520,13 @@
         <v>8</v>
       </c>
       <c r="S65">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="T65" t="s">
+        <v>191</v>
+      </c>
+      <c r="U65" t="s">
         <v>192</v>
-      </c>
-      <c r="U65" t="s">
-        <v>193</v>
       </c>
       <c r="V65">
         <v>0</v>
@@ -6588,16 +6585,16 @@
         <v>75</v>
       </c>
       <c r="I66" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J66" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K66">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L66">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -6606,13 +6603,13 @@
         <v>8</v>
       </c>
       <c r="S66">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T66" t="s">
+        <v>191</v>
+      </c>
+      <c r="U66" t="s">
         <v>192</v>
-      </c>
-      <c r="U66" t="s">
-        <v>193</v>
       </c>
       <c r="V66">
         <v>0</v>
@@ -6671,16 +6668,16 @@
         <v>75</v>
       </c>
       <c r="I67" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K67">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L67">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M67">
         <v>0</v>
@@ -6692,10 +6689,10 @@
         <v>1</v>
       </c>
       <c r="T67" t="s">
+        <v>191</v>
+      </c>
+      <c r="U67" t="s">
         <v>192</v>
-      </c>
-      <c r="U67" t="s">
-        <v>193</v>
       </c>
       <c r="V67">
         <v>0</v>
@@ -6754,16 +6751,16 @@
         <v>75</v>
       </c>
       <c r="I68" t="s">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="J68" t="s">
-        <v>185</v>
+        <v>66</v>
       </c>
       <c r="K68">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L68">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M68">
         <v>0</v>
@@ -6772,13 +6769,13 @@
         <v>8</v>
       </c>
       <c r="S68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T68" t="s">
+        <v>191</v>
+      </c>
+      <c r="U68" t="s">
         <v>192</v>
-      </c>
-      <c r="U68" t="s">
-        <v>193</v>
       </c>
       <c r="V68">
         <v>0</v>
@@ -6837,16 +6834,16 @@
         <v>75</v>
       </c>
       <c r="I69" t="s">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="J69" t="s">
-        <v>186</v>
+        <v>68</v>
       </c>
       <c r="K69">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L69">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M69">
         <v>0</v>
@@ -6855,13 +6852,13 @@
         <v>8</v>
       </c>
       <c r="S69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T69" t="s">
+        <v>191</v>
+      </c>
+      <c r="U69" t="s">
         <v>192</v>
-      </c>
-      <c r="U69" t="s">
-        <v>193</v>
       </c>
       <c r="V69">
         <v>0</v>
@@ -6920,16 +6917,16 @@
         <v>75</v>
       </c>
       <c r="I70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J70" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K70">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L70">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -6938,13 +6935,13 @@
         <v>8</v>
       </c>
       <c r="S70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T70" t="s">
+        <v>191</v>
+      </c>
+      <c r="U70" t="s">
         <v>192</v>
-      </c>
-      <c r="U70" t="s">
-        <v>193</v>
       </c>
       <c r="V70">
         <v>0</v>
@@ -7003,16 +7000,16 @@
         <v>75</v>
       </c>
       <c r="I71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J71" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K71">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L71">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -7021,13 +7018,13 @@
         <v>8</v>
       </c>
       <c r="S71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T71" t="s">
+        <v>191</v>
+      </c>
+      <c r="U71" t="s">
         <v>192</v>
-      </c>
-      <c r="U71" t="s">
-        <v>193</v>
       </c>
       <c r="V71">
         <v>0</v>
@@ -7086,16 +7083,16 @@
         <v>75</v>
       </c>
       <c r="I72" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="J72" t="s">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="K72">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L72">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -7104,13 +7101,13 @@
         <v>8</v>
       </c>
       <c r="S72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T72" t="s">
+        <v>191</v>
+      </c>
+      <c r="U72" t="s">
         <v>192</v>
-      </c>
-      <c r="U72" t="s">
-        <v>193</v>
       </c>
       <c r="V72">
         <v>0</v>
@@ -7175,10 +7172,10 @@
         <v>189</v>
       </c>
       <c r="K73">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L73">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -7187,10 +7184,10 @@
         <v>8</v>
       </c>
       <c r="S73">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="T73" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U73" t="s">
         <v>193</v>
@@ -7252,16 +7249,16 @@
         <v>75</v>
       </c>
       <c r="I74" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="J74" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="K74">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L74">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -7270,10 +7267,10 @@
         <v>8</v>
       </c>
       <c r="S74">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T74" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U74" t="s">
         <v>193</v>
@@ -7320,7 +7317,7 @@
     </row>
     <row r="75" spans="1:43">
       <c r="A75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B75" t="s">
         <v>70</v>
@@ -7335,16 +7332,16 @@
         <v>75</v>
       </c>
       <c r="I75" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="J75" t="s">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="K75">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="L75">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -7353,13 +7350,13 @@
         <v>8</v>
       </c>
       <c r="S75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T75" t="s">
+        <v>191</v>
+      </c>
+      <c r="U75" t="s">
         <v>192</v>
-      </c>
-      <c r="U75" t="s">
-        <v>193</v>
       </c>
       <c r="V75">
         <v>0</v>
@@ -7418,16 +7415,16 @@
         <v>75</v>
       </c>
       <c r="I76" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="J76" t="s">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="K76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -7439,10 +7436,10 @@
         <v>1</v>
       </c>
       <c r="T76" t="s">
+        <v>191</v>
+      </c>
+      <c r="U76" t="s">
         <v>192</v>
-      </c>
-      <c r="U76" t="s">
-        <v>193</v>
       </c>
       <c r="V76">
         <v>0</v>
@@ -7486,7 +7483,7 @@
     </row>
     <row r="77" spans="1:43">
       <c r="A77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B77" t="s">
         <v>70</v>
@@ -7501,16 +7498,16 @@
         <v>75</v>
       </c>
       <c r="I77" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="J77" t="s">
-        <v>191</v>
+        <v>70</v>
       </c>
       <c r="K77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M77">
         <v>0</v>
@@ -7522,10 +7519,10 @@
         <v>1</v>
       </c>
       <c r="T77" t="s">
+        <v>191</v>
+      </c>
+      <c r="U77" t="s">
         <v>192</v>
-      </c>
-      <c r="U77" t="s">
-        <v>193</v>
       </c>
       <c r="V77">
         <v>0</v>
@@ -7584,16 +7581,16 @@
         <v>75</v>
       </c>
       <c r="I78" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="J78" t="s">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="K78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M78">
         <v>0</v>
@@ -7605,11 +7602,11 @@
         <v>1</v>
       </c>
       <c r="T78" t="s">
+        <v>191</v>
+      </c>
+      <c r="U78" t="s">
         <v>192</v>
       </c>
-      <c r="U78" t="s">
-        <v>193</v>
-      </c>
       <c r="V78">
         <v>0</v>
       </c>
@@ -7647,89 +7644,6 @@
         <v>0</v>
       </c>
       <c r="AQ78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:43">
-      <c r="A79" t="s">
-        <v>57</v>
-      </c>
-      <c r="B79" t="s">
-        <v>70</v>
-      </c>
-      <c r="E79">
-        <v>10</v>
-      </c>
-      <c r="G79" t="s">
-        <v>71</v>
-      </c>
-      <c r="H79" t="s">
-        <v>75</v>
-      </c>
-      <c r="I79" t="s">
-        <v>136</v>
-      </c>
-      <c r="J79" t="s">
-        <v>191</v>
-      </c>
-      <c r="K79">
-        <v>2</v>
-      </c>
-      <c r="L79">
-        <v>2</v>
-      </c>
-      <c r="M79">
-        <v>0</v>
-      </c>
-      <c r="R79" t="s">
-        <v>8</v>
-      </c>
-      <c r="S79">
-        <v>1</v>
-      </c>
-      <c r="T79" t="s">
-        <v>192</v>
-      </c>
-      <c r="U79" t="s">
-        <v>193</v>
-      </c>
-      <c r="V79">
-        <v>0</v>
-      </c>
-      <c r="W79">
-        <v>0</v>
-      </c>
-      <c r="AB79">
-        <v>1</v>
-      </c>
-      <c r="AF79">
-        <v>1</v>
-      </c>
-      <c r="AG79">
-        <v>0</v>
-      </c>
-      <c r="AH79">
-        <v>0</v>
-      </c>
-      <c r="AK79">
-        <v>0</v>
-      </c>
-      <c r="AL79">
-        <v>0</v>
-      </c>
-      <c r="AM79">
-        <v>0</v>
-      </c>
-      <c r="AN79">
-        <v>0</v>
-      </c>
-      <c r="AO79">
-        <v>0</v>
-      </c>
-      <c r="AP79">
-        <v>0</v>
-      </c>
-      <c r="AQ79">
         <v>0</v>
       </c>
     </row>
@@ -7740,7 +7654,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AW21"/>
+  <dimension ref="A1:AW22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7772,61 +7686,61 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>23</v>
@@ -7835,64 +7749,64 @@
         <v>24</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AF1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:49">
@@ -7915,19 +7829,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L2">
         <v>0.5</v>
       </c>
       <c r="M2" t="s">
+        <v>241</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
         <v>242</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2" t="s">
-        <v>243</v>
       </c>
       <c r="P2">
         <v>0.5</v>
@@ -7960,28 +7874,28 @@
         <v>1</v>
       </c>
       <c r="AE2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG2" t="s">
         <v>244</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="s">
         <v>245</v>
       </c>
-      <c r="AH2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="s">
+      <c r="AK2" t="s">
         <v>246</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="s">
         <v>247</v>
       </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>248</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>249</v>
       </c>
       <c r="AO2">
         <v>0</v>
@@ -8025,19 +7939,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L3">
         <v>0.5</v>
       </c>
       <c r="M3" t="s">
+        <v>241</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
         <v>242</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3" t="s">
-        <v>243</v>
       </c>
       <c r="P3">
         <v>0.5</v>
@@ -8070,28 +7984,28 @@
         <v>1</v>
       </c>
       <c r="AE3" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG3" t="s">
         <v>244</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="s">
         <v>245</v>
       </c>
-      <c r="AH3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="s">
+      <c r="AK3" t="s">
         <v>246</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="s">
         <v>247</v>
       </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
         <v>248</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>249</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -8135,19 +8049,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L4">
         <v>0.5</v>
       </c>
       <c r="M4" t="s">
+        <v>241</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
         <v>242</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4" t="s">
-        <v>243</v>
       </c>
       <c r="P4">
         <v>0.5</v>
@@ -8180,28 +8094,28 @@
         <v>1</v>
       </c>
       <c r="AE4" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG4" t="s">
         <v>244</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="s">
         <v>245</v>
       </c>
-      <c r="AH4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="s">
+      <c r="AK4" t="s">
         <v>246</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="s">
         <v>247</v>
       </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4" t="s">
+      <c r="AN4" t="s">
         <v>248</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>249</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -8245,19 +8159,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L5">
         <v>0.5</v>
       </c>
       <c r="M5" t="s">
+        <v>241</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
         <v>242</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5" t="s">
-        <v>243</v>
       </c>
       <c r="P5">
         <v>0.5</v>
@@ -8290,28 +8204,28 @@
         <v>1</v>
       </c>
       <c r="AE5" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG5" t="s">
         <v>244</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AH5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="s">
         <v>245</v>
       </c>
-      <c r="AH5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="s">
+      <c r="AK5" t="s">
         <v>246</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="s">
         <v>247</v>
       </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="s">
+      <c r="AN5" t="s">
         <v>248</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>249</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -8355,19 +8269,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L6">
         <v>0.5</v>
       </c>
       <c r="M6" t="s">
+        <v>241</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
         <v>242</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6" t="s">
-        <v>243</v>
       </c>
       <c r="P6">
         <v>0.5</v>
@@ -8400,28 +8314,28 @@
         <v>1</v>
       </c>
       <c r="AE6" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG6" t="s">
         <v>244</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AH6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="s">
         <v>245</v>
       </c>
-      <c r="AH6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="s">
+      <c r="AK6" t="s">
         <v>246</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="s">
         <v>247</v>
       </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6" t="s">
+      <c r="AN6" t="s">
         <v>248</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>249</v>
       </c>
       <c r="AO6">
         <v>0</v>
@@ -8456,28 +8370,28 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L7">
         <v>0.5</v>
       </c>
       <c r="M7" t="s">
+        <v>241</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
         <v>242</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7" t="s">
-        <v>243</v>
       </c>
       <c r="P7">
         <v>0.5</v>
@@ -8510,28 +8424,28 @@
         <v>1</v>
       </c>
       <c r="AE7" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG7" t="s">
         <v>244</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AH7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="s">
         <v>245</v>
       </c>
-      <c r="AH7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="s">
+      <c r="AK7" t="s">
         <v>246</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="s">
         <v>247</v>
       </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7" t="s">
+      <c r="AN7" t="s">
         <v>248</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>249</v>
       </c>
       <c r="AO7">
         <v>0</v>
@@ -8557,37 +8471,37 @@
     </row>
     <row r="8" spans="1:49">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>232</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L8">
         <v>0.5</v>
       </c>
       <c r="M8" t="s">
+        <v>241</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
         <v>242</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8" t="s">
-        <v>243</v>
       </c>
       <c r="P8">
         <v>0.5</v>
@@ -8620,28 +8534,28 @@
         <v>1</v>
       </c>
       <c r="AE8" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG8" t="s">
         <v>244</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AH8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="s">
         <v>245</v>
       </c>
-      <c r="AH8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="s">
+      <c r="AK8" t="s">
         <v>246</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="s">
         <v>247</v>
       </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8" t="s">
+      <c r="AN8" t="s">
         <v>248</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>249</v>
       </c>
       <c r="AO8">
         <v>0</v>
@@ -8667,13 +8581,13 @@
     </row>
     <row r="9" spans="1:49">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
         <v>233</v>
@@ -8685,19 +8599,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L9">
         <v>0.5</v>
       </c>
       <c r="M9" t="s">
+        <v>241</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
         <v>242</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9" t="s">
-        <v>243</v>
       </c>
       <c r="P9">
         <v>0.5</v>
@@ -8730,28 +8644,28 @@
         <v>1</v>
       </c>
       <c r="AE9" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG9" t="s">
         <v>244</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AH9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="s">
         <v>245</v>
       </c>
-      <c r="AH9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="s">
+      <c r="AK9" t="s">
         <v>246</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="s">
         <v>247</v>
       </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="s">
+      <c r="AN9" t="s">
         <v>248</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>249</v>
       </c>
       <c r="AO9">
         <v>0</v>
@@ -8783,31 +8697,31 @@
         <v>63</v>
       </c>
       <c r="E10">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>234</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s">
-        <v>238</v>
+        <v>78</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L10">
         <v>0.5</v>
       </c>
       <c r="M10" t="s">
+        <v>241</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
         <v>242</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10" t="s">
-        <v>243</v>
       </c>
       <c r="P10">
         <v>0.5</v>
@@ -8840,28 +8754,28 @@
         <v>1</v>
       </c>
       <c r="AE10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG10" t="s">
         <v>244</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AH10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="s">
         <v>245</v>
       </c>
-      <c r="AH10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="s">
+      <c r="AK10" t="s">
         <v>246</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="s">
         <v>247</v>
       </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10" t="s">
+      <c r="AN10" t="s">
         <v>248</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>249</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -8887,37 +8801,37 @@
     </row>
     <row r="11" spans="1:49">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>234</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L11">
         <v>0.5</v>
       </c>
       <c r="M11" t="s">
+        <v>241</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
         <v>242</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11" t="s">
-        <v>243</v>
       </c>
       <c r="P11">
         <v>0.5</v>
@@ -8950,28 +8864,28 @@
         <v>1</v>
       </c>
       <c r="AE11" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG11" t="s">
         <v>244</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AH11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="s">
         <v>245</v>
       </c>
-      <c r="AH11" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="s">
+      <c r="AK11" t="s">
         <v>246</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="s">
         <v>247</v>
       </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11" t="s">
+      <c r="AN11" t="s">
         <v>248</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>249</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -9003,31 +8917,31 @@
         <v>64</v>
       </c>
       <c r="E12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>235</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s">
-        <v>239</v>
+        <v>77</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L12">
         <v>0.5</v>
       </c>
       <c r="M12" t="s">
+        <v>241</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
         <v>242</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12" t="s">
-        <v>243</v>
       </c>
       <c r="P12">
         <v>0.5</v>
@@ -9060,28 +8974,28 @@
         <v>1</v>
       </c>
       <c r="AE12" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG12" t="s">
         <v>244</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AH12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="s">
         <v>245</v>
       </c>
-      <c r="AH12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="s">
+      <c r="AK12" t="s">
         <v>246</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="s">
         <v>247</v>
       </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12" t="s">
+      <c r="AN12" t="s">
         <v>248</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>249</v>
       </c>
       <c r="AO12">
         <v>0</v>
@@ -9107,37 +9021,37 @@
     </row>
     <row r="13" spans="1:49">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>235</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>239</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L13">
         <v>0.5</v>
       </c>
       <c r="M13" t="s">
+        <v>241</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
         <v>242</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13" t="s">
-        <v>243</v>
       </c>
       <c r="P13">
         <v>0.5</v>
@@ -9170,28 +9084,28 @@
         <v>1</v>
       </c>
       <c r="AE13" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG13" t="s">
         <v>244</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AH13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="s">
         <v>245</v>
       </c>
-      <c r="AH13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="s">
+      <c r="AK13" t="s">
         <v>246</v>
       </c>
-      <c r="AK13" t="s">
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="s">
         <v>247</v>
       </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13" t="s">
+      <c r="AN13" t="s">
         <v>248</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>249</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -9223,31 +9137,31 @@
         <v>65</v>
       </c>
       <c r="E14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>236</v>
+        <v>71</v>
       </c>
       <c r="H14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
         <v>240</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="K14" t="s">
-        <v>241</v>
       </c>
       <c r="L14">
         <v>0.5</v>
       </c>
       <c r="M14" t="s">
+        <v>241</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
         <v>242</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14" t="s">
-        <v>243</v>
       </c>
       <c r="P14">
         <v>0.5</v>
@@ -9280,28 +9194,28 @@
         <v>1</v>
       </c>
       <c r="AE14" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG14" t="s">
         <v>244</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AH14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="s">
         <v>245</v>
       </c>
-      <c r="AH14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="s">
+      <c r="AK14" t="s">
         <v>246</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="s">
         <v>247</v>
       </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14" t="s">
+      <c r="AN14" t="s">
         <v>248</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>249</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -9336,28 +9250,28 @@
         <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L15">
         <v>0.5</v>
       </c>
       <c r="M15" t="s">
+        <v>241</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
         <v>242</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15" t="s">
-        <v>243</v>
       </c>
       <c r="P15">
         <v>0.5</v>
@@ -9390,28 +9304,28 @@
         <v>1</v>
       </c>
       <c r="AE15" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG15" t="s">
         <v>244</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AH15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="s">
         <v>245</v>
       </c>
-      <c r="AH15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="s">
+      <c r="AK15" t="s">
         <v>246</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="s">
         <v>247</v>
       </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AM15" t="s">
+      <c r="AN15" t="s">
         <v>248</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>249</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -9455,19 +9369,19 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L16">
         <v>0.5</v>
       </c>
       <c r="M16" t="s">
+        <v>241</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" t="s">
         <v>242</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16" t="s">
-        <v>243</v>
       </c>
       <c r="P16">
         <v>0.5</v>
@@ -9500,28 +9414,28 @@
         <v>1</v>
       </c>
       <c r="AE16" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG16" t="s">
         <v>244</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AH16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="s">
         <v>245</v>
       </c>
-      <c r="AH16" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="s">
+      <c r="AK16" t="s">
         <v>246</v>
       </c>
-      <c r="AK16" t="s">
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="s">
         <v>247</v>
       </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16" t="s">
+      <c r="AN16" t="s">
         <v>248</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>249</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -9565,19 +9479,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L17">
         <v>0.5</v>
       </c>
       <c r="M17" t="s">
+        <v>241</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
         <v>242</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17" t="s">
-        <v>243</v>
       </c>
       <c r="P17">
         <v>0.5</v>
@@ -9610,28 +9524,28 @@
         <v>1</v>
       </c>
       <c r="AE17" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG17" t="s">
         <v>244</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AH17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="s">
         <v>245</v>
       </c>
-      <c r="AH17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="s">
+      <c r="AK17" t="s">
         <v>246</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="s">
         <v>247</v>
       </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17" t="s">
+      <c r="AN17" t="s">
         <v>248</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>249</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -9666,28 +9580,28 @@
         <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L18">
         <v>0.5</v>
       </c>
       <c r="M18" t="s">
+        <v>241</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
         <v>242</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18" t="s">
-        <v>243</v>
       </c>
       <c r="P18">
         <v>0.5</v>
@@ -9720,28 +9634,28 @@
         <v>1</v>
       </c>
       <c r="AE18" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG18" t="s">
         <v>244</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AH18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="s">
         <v>245</v>
       </c>
-      <c r="AH18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="s">
+      <c r="AK18" t="s">
         <v>246</v>
       </c>
-      <c r="AK18" t="s">
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="s">
         <v>247</v>
       </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18" t="s">
+      <c r="AN18" t="s">
         <v>248</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>249</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -9767,37 +9681,37 @@
     </row>
     <row r="19" spans="1:49">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>71</v>
+        <v>235</v>
       </c>
       <c r="H19" t="s">
-        <v>75</v>
+        <v>239</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L19">
         <v>0.5</v>
       </c>
       <c r="M19" t="s">
+        <v>241</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" t="s">
         <v>242</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19" t="s">
-        <v>243</v>
       </c>
       <c r="P19">
         <v>0.5</v>
@@ -9830,28 +9744,28 @@
         <v>1</v>
       </c>
       <c r="AE19" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG19" t="s">
         <v>244</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AH19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="s">
         <v>245</v>
       </c>
-      <c r="AH19" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="s">
+      <c r="AK19" t="s">
         <v>246</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="s">
         <v>247</v>
       </c>
-      <c r="AL19">
-        <v>0</v>
-      </c>
-      <c r="AM19" t="s">
+      <c r="AN19" t="s">
         <v>248</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>249</v>
       </c>
       <c r="AO19">
         <v>0</v>
@@ -9877,7 +9791,7 @@
     </row>
     <row r="20" spans="1:49">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -9895,19 +9809,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L20">
         <v>0.5</v>
       </c>
       <c r="M20" t="s">
+        <v>241</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" t="s">
         <v>242</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20" t="s">
-        <v>243</v>
       </c>
       <c r="P20">
         <v>0.5</v>
@@ -9940,28 +9854,28 @@
         <v>1</v>
       </c>
       <c r="AE20" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG20" t="s">
         <v>244</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AH20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="s">
         <v>245</v>
       </c>
-      <c r="AH20" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="s">
+      <c r="AK20" t="s">
         <v>246</v>
       </c>
-      <c r="AK20" t="s">
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="s">
         <v>247</v>
       </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
-      <c r="AM20" t="s">
+      <c r="AN20" t="s">
         <v>248</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>249</v>
       </c>
       <c r="AO20">
         <v>0</v>
@@ -9987,7 +9901,7 @@
     </row>
     <row r="21" spans="1:49">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -10005,19 +9919,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L21">
         <v>0.5</v>
       </c>
       <c r="M21" t="s">
+        <v>241</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s">
         <v>242</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21" t="s">
-        <v>243</v>
       </c>
       <c r="P21">
         <v>0.5</v>
@@ -10050,28 +9964,28 @@
         <v>1</v>
       </c>
       <c r="AE21" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG21" t="s">
         <v>244</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AH21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="s">
         <v>245</v>
       </c>
-      <c r="AH21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="s">
+      <c r="AK21" t="s">
         <v>246</v>
       </c>
-      <c r="AK21" t="s">
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="s">
         <v>247</v>
       </c>
-      <c r="AL21">
-        <v>0</v>
-      </c>
-      <c r="AM21" t="s">
+      <c r="AN21" t="s">
         <v>248</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>249</v>
       </c>
       <c r="AO21">
         <v>0</v>
@@ -10092,6 +10006,116 @@
         <v>0</v>
       </c>
       <c r="AW21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:49">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>240</v>
+      </c>
+      <c r="L22">
+        <v>0.5</v>
+      </c>
+      <c r="M22" t="s">
+        <v>241</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22" t="s">
+        <v>242</v>
+      </c>
+      <c r="P22">
+        <v>0.5</v>
+      </c>
+      <c r="R22">
+        <v>100</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>244</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>247</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>248</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>100</v>
+      </c>
+      <c r="AS22">
+        <v>35</v>
+      </c>
+      <c r="AT22">
+        <v>35</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
         <v>0</v>
       </c>
     </row>
